--- a/DAILY SCHEDULE.xlsx
+++ b/DAILY SCHEDULE.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="60">
   <si>
     <t>STARTING TIME</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>DATE : 30 - 08 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 31 - 08 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 1 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 2 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 3 - 09 - 2023</t>
   </si>
 </sst>
 </file>
@@ -697,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1637,290 +1649,1231 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="11"/>
-    </row>
-    <row r="105" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A105" s="8" t="s">
+      <c r="A104" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A105" s="11"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="11"/>
+    </row>
+    <row r="106" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A106" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B106" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="10"/>
-    </row>
-    <row r="106" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A106" s="9" t="s">
+      <c r="C106" s="10"/>
+    </row>
+    <row r="107" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A107" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B106" s="9"/>
-    </row>
-    <row r="107" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A107" s="14" t="s">
+      <c r="B107" s="9"/>
+    </row>
+    <row r="108" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A108" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B107" s="9"/>
-    </row>
-    <row r="108" spans="1:3" ht="20.25" customHeight="1"/>
-    <row r="109" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A109" s="8" t="s">
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="110" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A110" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B110" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="10"/>
-    </row>
-    <row r="110" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A110" s="9" t="s">
+      <c r="C110" s="10"/>
+    </row>
+    <row r="111" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A111" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="9"/>
-    </row>
-    <row r="111" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A111" s="14" t="s">
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A112" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A112" s="14"/>
-    </row>
-    <row r="113" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A113" s="8" t="s">
+    <row r="113" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A113" s="14"/>
+    </row>
+    <row r="114" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A114" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B114" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="10"/>
-    </row>
-    <row r="114" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A114" s="9" t="s">
+      <c r="C114" s="10"/>
+    </row>
+    <row r="115" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A115" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B114" s="9"/>
-    </row>
-    <row r="115" spans="1:3" ht="20.25" customHeight="1"/>
-    <row r="116" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A116" s="8" t="s">
+      <c r="B115" s="9"/>
+    </row>
+    <row r="116" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="117" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A117" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B117" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="10"/>
-    </row>
-    <row r="117" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A117" s="6" t="s">
+      <c r="C117" s="10"/>
+    </row>
+    <row r="118" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A118" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B118" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C118" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A118" s="7" t="s">
+    <row r="119" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A119" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A119" s="11">
-        <v>0.4375</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
     </row>
     <row r="120" spans="1:3" ht="20.25" customHeight="1">
       <c r="A120" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="11">
         <v>0.5</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="11">
-        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20.25" customHeight="1">
       <c r="A121" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="11">
         <v>0.54166666666666663</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="11">
-        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20.25" customHeight="1">
       <c r="A122" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="11">
         <v>0.58333333333333337</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" s="11">
-        <v>0.625</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20.25" customHeight="1">
       <c r="A123" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="11">
         <v>0.625</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C123" s="11">
-        <v>0.6875</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20.25" customHeight="1">
       <c r="A124" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" s="11">
         <v>0.6875</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="11">
-        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20.25" customHeight="1">
       <c r="A125" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="11">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B125" s="12" t="s">
+    </row>
+    <row r="126" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A126" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B126" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C126" s="11">
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="20.25" customHeight="1"/>
-    <row r="127" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A127" s="8" t="s">
+    <row r="127" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="128" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A128" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B128" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="10"/>
-    </row>
-    <row r="128" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A128" s="6" t="s">
+      <c r="C128" s="10"/>
+    </row>
+    <row r="129" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A129" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B129" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C129" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A129" s="7" t="s">
+    <row r="130" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A130" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-    </row>
-    <row r="130" spans="1:3" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A130" s="16">
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="1:3" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A131" s="16">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B131" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C130" s="18">
+      <c r="C131" s="18">
         <v>0.4375</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A131" s="11">
-        <v>0.4375</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" s="11">
-        <v>0.5</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20.25" customHeight="1">
       <c r="A132" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="11">
         <v>0.5</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="11">
-        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20.25" customHeight="1">
       <c r="A133" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="11">
         <v>0.54166666666666663</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="11">
-        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20.25" customHeight="1">
       <c r="A134" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="11">
         <v>0.58333333333333337</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C134" s="11">
-        <v>0.625</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20.25" customHeight="1">
       <c r="A135" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="11">
         <v>0.625</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C135" s="11">
-        <v>0.6875</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20.25" customHeight="1">
       <c r="A136" s="11">
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C136" s="11">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20.25" customHeight="1">
       <c r="A137" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="11">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B137" s="12" t="s">
+    </row>
+    <row r="138" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A138" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B138" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C137" s="11">
+      <c r="C138" s="11">
         <v>0.77083333333333337</v>
       </c>
+    </row>
+    <row r="139" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="140" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A140" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="10"/>
+    </row>
+    <row r="141" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A141" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A142" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+    </row>
+    <row r="143" spans="1:3" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A143" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="18">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A144" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A145" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A146" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A147" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A148" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A149" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A150" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="152" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A152" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" s="10"/>
+    </row>
+    <row r="153" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A153" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A154" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="1:3" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A155" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="18">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A156" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A157" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A158" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A159" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A160" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C160" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A161" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A162" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A163" s="11"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="11"/>
+    </row>
+    <row r="164" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A164" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="10"/>
+    </row>
+    <row r="165" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A165" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="9"/>
+    </row>
+    <row r="166" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A166" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" s="9"/>
+    </row>
+    <row r="167" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="168" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A168" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" s="10"/>
+    </row>
+    <row r="169" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A169" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="9"/>
+    </row>
+    <row r="170" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A170" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A171" s="14"/>
+    </row>
+    <row r="172" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A172" s="14"/>
+    </row>
+    <row r="173" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A173" s="14"/>
+    </row>
+    <row r="174" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A174" s="14"/>
+    </row>
+    <row r="175" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A175" s="14"/>
+    </row>
+    <row r="176" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A176" s="14"/>
+    </row>
+    <row r="177" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A177" s="14"/>
+    </row>
+    <row r="178" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A178" s="14"/>
+    </row>
+    <row r="179" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A179" s="14"/>
+    </row>
+    <row r="180" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A180" s="14"/>
+    </row>
+    <row r="181" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A181" s="14"/>
+    </row>
+    <row r="182" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A182" s="14"/>
+    </row>
+    <row r="183" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A183" s="14"/>
+    </row>
+    <row r="184" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A184" s="14"/>
+    </row>
+    <row r="185" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A185" s="14"/>
+    </row>
+    <row r="186" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A186" s="14"/>
+    </row>
+    <row r="187" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A187" s="14"/>
+    </row>
+    <row r="188" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A188" s="14"/>
+    </row>
+    <row r="189" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A189" s="14"/>
+    </row>
+    <row r="190" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A190" s="14"/>
+    </row>
+    <row r="191" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A191" s="14"/>
+    </row>
+    <row r="192" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A192" s="14"/>
+    </row>
+    <row r="193" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A193" s="14"/>
+    </row>
+    <row r="194" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A194" s="14"/>
+    </row>
+    <row r="195" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A195" s="14"/>
+    </row>
+    <row r="196" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A196" s="14"/>
+    </row>
+    <row r="197" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A197" s="14"/>
+    </row>
+    <row r="198" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A198" s="14"/>
+    </row>
+    <row r="199" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A199" s="14"/>
+    </row>
+    <row r="200" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A200" s="14"/>
+    </row>
+    <row r="201" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A201" s="14"/>
+    </row>
+    <row r="202" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A202" s="14"/>
+    </row>
+    <row r="203" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A203" s="14"/>
+    </row>
+    <row r="204" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A204" s="14"/>
+    </row>
+    <row r="205" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A205" s="14"/>
+    </row>
+    <row r="206" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A206" s="14"/>
+    </row>
+    <row r="207" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A207" s="14"/>
+    </row>
+    <row r="208" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A208" s="14"/>
+    </row>
+    <row r="209" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A209" s="14"/>
+    </row>
+    <row r="210" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A210" s="14"/>
+    </row>
+    <row r="211" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A211" s="14"/>
+    </row>
+    <row r="212" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A212" s="14"/>
+    </row>
+    <row r="213" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A213" s="14"/>
+    </row>
+    <row r="214" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A214" s="14"/>
+    </row>
+    <row r="215" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A215" s="14"/>
+    </row>
+    <row r="216" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A216" s="14"/>
+    </row>
+    <row r="217" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A217" s="14"/>
+    </row>
+    <row r="218" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A218" s="14"/>
+    </row>
+    <row r="219" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A219" s="14"/>
+    </row>
+    <row r="220" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A220" s="14"/>
+    </row>
+    <row r="221" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A221" s="14"/>
+    </row>
+    <row r="222" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A222" s="14"/>
+    </row>
+    <row r="223" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A223" s="14"/>
+    </row>
+    <row r="224" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A224" s="14"/>
+    </row>
+    <row r="225" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A225" s="14"/>
+    </row>
+    <row r="226" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A226" s="14"/>
+    </row>
+    <row r="227" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A227" s="14"/>
+    </row>
+    <row r="228" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A228" s="14"/>
+    </row>
+    <row r="229" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A229" s="14"/>
+    </row>
+    <row r="230" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A230" s="14"/>
+    </row>
+    <row r="231" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A231" s="14"/>
+    </row>
+    <row r="232" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A232" s="14"/>
+    </row>
+    <row r="233" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A233" s="14"/>
+    </row>
+    <row r="234" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A234" s="14"/>
+    </row>
+    <row r="235" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A235" s="14"/>
+    </row>
+    <row r="236" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A236" s="14"/>
+    </row>
+    <row r="237" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A237" s="14"/>
+    </row>
+    <row r="238" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A238" s="14"/>
+    </row>
+    <row r="239" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A239" s="14"/>
+    </row>
+    <row r="240" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A240" s="14"/>
+    </row>
+    <row r="241" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A241" s="14"/>
+    </row>
+    <row r="242" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A242" s="14"/>
+    </row>
+    <row r="243" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A243" s="14"/>
+    </row>
+    <row r="244" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A244" s="14"/>
+    </row>
+    <row r="245" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A245" s="14"/>
+    </row>
+    <row r="246" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A246" s="14"/>
+    </row>
+    <row r="247" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A247" s="14"/>
+    </row>
+    <row r="248" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A248" s="14"/>
+    </row>
+    <row r="249" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A249" s="14"/>
+    </row>
+    <row r="250" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A250" s="14"/>
+    </row>
+    <row r="251" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A251" s="14"/>
+    </row>
+    <row r="252" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A252" s="14"/>
+    </row>
+    <row r="253" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A253" s="14"/>
+    </row>
+    <row r="254" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A254" s="14"/>
+    </row>
+    <row r="255" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A255" s="14"/>
+    </row>
+    <row r="256" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A256" s="14"/>
+    </row>
+    <row r="257" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A257" s="14"/>
+    </row>
+    <row r="258" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A258" s="14"/>
+    </row>
+    <row r="259" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A259" s="14"/>
+    </row>
+    <row r="260" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A260" s="14"/>
+    </row>
+    <row r="261" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A261" s="14"/>
+    </row>
+    <row r="262" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A262" s="14"/>
+    </row>
+    <row r="263" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A263" s="14"/>
+    </row>
+    <row r="264" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A264" s="14"/>
+    </row>
+    <row r="265" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A265" s="14"/>
+    </row>
+    <row r="266" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A266" s="14"/>
+    </row>
+    <row r="267" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A267" s="14"/>
+    </row>
+    <row r="268" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A268" s="14"/>
+    </row>
+    <row r="269" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A269" s="14"/>
+    </row>
+    <row r="270" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A270" s="14"/>
+    </row>
+    <row r="271" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A271" s="14"/>
+    </row>
+    <row r="272" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A272" s="14"/>
+    </row>
+    <row r="273" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A273" s="14"/>
+    </row>
+    <row r="274" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A274" s="14"/>
+    </row>
+    <row r="275" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A275" s="14"/>
+    </row>
+    <row r="276" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A276" s="14"/>
+    </row>
+    <row r="277" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A277" s="14"/>
+    </row>
+    <row r="278" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A278" s="14"/>
+    </row>
+    <row r="279" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A279" s="14"/>
+    </row>
+    <row r="280" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A280" s="14"/>
+    </row>
+    <row r="281" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A281" s="14"/>
+    </row>
+    <row r="282" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A282" s="14"/>
+    </row>
+    <row r="283" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A283" s="14"/>
+    </row>
+    <row r="284" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A284" s="14"/>
+    </row>
+    <row r="285" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A285" s="14"/>
+    </row>
+    <row r="286" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A286" s="14"/>
+    </row>
+    <row r="287" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A287" s="14"/>
+    </row>
+    <row r="288" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A288" s="14"/>
+    </row>
+    <row r="289" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A289" s="14"/>
+    </row>
+    <row r="290" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A290" s="14"/>
+    </row>
+    <row r="291" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A291" s="14"/>
+    </row>
+    <row r="292" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A292" s="14"/>
+    </row>
+    <row r="293" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A293" s="14"/>
+    </row>
+    <row r="294" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A294" s="14"/>
+    </row>
+    <row r="295" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A295" s="14"/>
+    </row>
+    <row r="296" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A296" s="14"/>
+    </row>
+    <row r="297" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A297" s="14"/>
+    </row>
+    <row r="298" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A298" s="14"/>
+    </row>
+    <row r="299" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A299" s="14"/>
+    </row>
+    <row r="300" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A300" s="14"/>
+    </row>
+    <row r="301" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A301" s="14"/>
+    </row>
+    <row r="302" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A302" s="14"/>
+    </row>
+    <row r="303" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A303" s="14"/>
+    </row>
+    <row r="304" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A304" s="14"/>
+    </row>
+    <row r="305" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A305" s="14"/>
+    </row>
+    <row r="306" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A306" s="14"/>
+    </row>
+    <row r="307" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A307" s="14"/>
+    </row>
+    <row r="308" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A308" s="14"/>
+    </row>
+    <row r="309" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A309" s="14"/>
+    </row>
+    <row r="310" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A310" s="14"/>
+    </row>
+    <row r="311" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A311" s="14"/>
+    </row>
+    <row r="312" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A312" s="14"/>
+    </row>
+    <row r="313" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A313" s="14"/>
+    </row>
+    <row r="314" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A314" s="14"/>
+    </row>
+    <row r="315" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A315" s="14"/>
+    </row>
+    <row r="316" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A316" s="14"/>
+    </row>
+    <row r="317" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A317" s="14"/>
+    </row>
+    <row r="318" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A318" s="14"/>
+    </row>
+    <row r="319" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A319" s="14"/>
+    </row>
+    <row r="320" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A320" s="14"/>
+    </row>
+    <row r="321" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A321" s="14"/>
+    </row>
+    <row r="322" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A322" s="14"/>
+    </row>
+    <row r="323" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A323" s="14"/>
+    </row>
+    <row r="324" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A324" s="14"/>
+    </row>
+    <row r="325" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A325" s="14"/>
+    </row>
+    <row r="326" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A326" s="14"/>
+    </row>
+    <row r="327" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A327" s="14"/>
+    </row>
+    <row r="328" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A328" s="14"/>
+    </row>
+    <row r="329" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A329" s="14"/>
+    </row>
+    <row r="330" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A330" s="14"/>
+    </row>
+    <row r="331" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A331" s="14"/>
+    </row>
+    <row r="332" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A332" s="14"/>
+    </row>
+    <row r="333" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A333" s="14"/>
+    </row>
+    <row r="334" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A334" s="14"/>
+    </row>
+    <row r="335" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A335" s="14"/>
+    </row>
+    <row r="336" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A336" s="14"/>
+    </row>
+    <row r="337" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A337" s="14"/>
+    </row>
+    <row r="338" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A338" s="14"/>
+    </row>
+    <row r="339" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A339" s="14"/>
+    </row>
+    <row r="340" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A340" s="14"/>
+    </row>
+    <row r="341" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A341" s="14"/>
+    </row>
+    <row r="342" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A342" s="14"/>
+    </row>
+    <row r="343" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A343" s="14"/>
+    </row>
+    <row r="344" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A344" s="14"/>
+    </row>
+    <row r="345" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A345" s="14"/>
+    </row>
+    <row r="346" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A346" s="14"/>
+    </row>
+    <row r="347" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A347" s="14"/>
+    </row>
+    <row r="348" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A348" s="14"/>
+    </row>
+    <row r="349" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A349" s="14"/>
+    </row>
+    <row r="350" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A350" s="14"/>
+    </row>
+    <row r="351" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A351" s="14"/>
+    </row>
+    <row r="352" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A352" s="14"/>
+    </row>
+    <row r="353" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A353" s="14"/>
+    </row>
+    <row r="354" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A354" s="14"/>
+    </row>
+    <row r="355" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A355" s="14"/>
+    </row>
+    <row r="356" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A356" s="14"/>
+    </row>
+    <row r="357" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A357" s="14"/>
+    </row>
+    <row r="358" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A358" s="14"/>
+    </row>
+    <row r="359" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A359" s="14"/>
+    </row>
+    <row r="360" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A360" s="14"/>
+    </row>
+    <row r="361" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A361" s="14"/>
+    </row>
+    <row r="362" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A362" s="14"/>
+    </row>
+    <row r="363" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A363" s="14"/>
+    </row>
+    <row r="364" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A364" s="14"/>
+    </row>
+    <row r="365" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A365" s="14"/>
+    </row>
+    <row r="366" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A366" s="14"/>
+    </row>
+    <row r="367" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A367" s="14"/>
+    </row>
+    <row r="368" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A368" s="14"/>
+    </row>
+    <row r="369" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A369" s="14"/>
+    </row>
+    <row r="370" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A370" s="14"/>
+    </row>
+    <row r="371" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A371" s="14"/>
+    </row>
+    <row r="372" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A372" s="14"/>
+    </row>
+    <row r="373" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A373" s="14"/>
+    </row>
+    <row r="374" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A374" s="14"/>
+    </row>
+    <row r="375" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A375" s="14"/>
+    </row>
+    <row r="376" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A376" s="14"/>
+    </row>
+    <row r="377" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A377" s="14"/>
+    </row>
+    <row r="378" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A378" s="14"/>
+    </row>
+    <row r="379" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A379" s="14"/>
+    </row>
+    <row r="380" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A380" s="14"/>
+    </row>
+    <row r="381" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A381" s="14"/>
+    </row>
+    <row r="382" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A382" s="14"/>
+    </row>
+    <row r="383" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A383" s="14"/>
+    </row>
+    <row r="384" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A384" s="14"/>
+    </row>
+    <row r="385" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A385" s="14"/>
+    </row>
+    <row r="386" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A386" s="14"/>
+    </row>
+    <row r="387" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A387" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DAILY SCHEDULE.xlsx
+++ b/DAILY SCHEDULE.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="62">
   <si>
     <t>STARTING TIME</t>
   </si>
@@ -102,9 +102,6 @@
     <t xml:space="preserve">MULE TRAINING - JSON </t>
   </si>
   <si>
-    <t>AI AND PRACTISE</t>
-  </si>
-  <si>
     <t>DATE : 18 - 08 - 2023</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>DEALING WITH SYSTEM ISSUES</t>
   </si>
   <si>
-    <t>ML AND PRACTISE</t>
-  </si>
-  <si>
     <t>MENTOR : SELF</t>
   </si>
   <si>
@@ -204,13 +198,25 @@
     <t>DATE : 31 - 08 - 2023</t>
   </si>
   <si>
-    <t>DATE : 1 - 09 - 2023</t>
-  </si>
-  <si>
-    <t>DATE : 2 - 09 - 2023</t>
-  </si>
-  <si>
-    <t>DATE : 3 - 09 - 2023</t>
+    <t>MULE TRAINING - MULE INTRO AND INSTALLATIONS</t>
+  </si>
+  <si>
+    <t>MULE PRACTISE AND NOTES</t>
+  </si>
+  <si>
+    <t>DATE : 01 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 02 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 03 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 04 - 09 - 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULE CERTIFICATION COURSE VIDEOS </t>
   </si>
 </sst>
 </file>
@@ -689,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -724,12 +730,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1"/>
@@ -1005,7 +1011,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C33" s="11">
         <v>0.77083333333333337</v>
@@ -1014,10 +1020,10 @@
     <row r="34" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="C35" s="10"/>
     </row>
@@ -1034,7 +1040,7 @@
     </row>
     <row r="37" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1066,7 +1072,7 @@
         <v>0.5</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="11">
         <v>0.54166666666666663</v>
@@ -1110,7 +1116,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C44" s="11">
         <v>0.72916666666666663</v>
@@ -1123,10 +1129,10 @@
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="C46" s="10"/>
     </row>
@@ -1138,17 +1144,17 @@
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="50" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A50" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C50" s="10"/>
     </row>
@@ -1160,13 +1166,13 @@
     </row>
     <row r="52" spans="1:3" ht="20.25" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="54" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>3</v>
@@ -1186,7 +1192,7 @@
     </row>
     <row r="56" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1218,7 +1224,7 @@
         <v>0.5</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="11">
         <v>0.54166666666666663</v>
@@ -1240,7 +1246,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C61" s="11">
         <v>0.625</v>
@@ -1251,7 +1257,7 @@
         <v>0.625</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C62" s="11">
         <v>0.6875</v>
@@ -1262,7 +1268,7 @@
         <v>0.6875</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C63" s="11">
         <v>0.72916666666666663</v>
@@ -1282,7 +1288,7 @@
     <row r="65" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="66" spans="1:3" ht="20.25" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>9</v>
@@ -1302,7 +1308,7 @@
     </row>
     <row r="68" spans="1:3" ht="20.25" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1323,7 +1329,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C70" s="11">
         <v>0.5</v>
@@ -1336,7 +1342,7 @@
     </row>
     <row r="72" spans="1:3" ht="20.25" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>11</v>
@@ -1410,7 +1416,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C79" s="11">
         <v>0.65277777777777779</v>
@@ -1421,7 +1427,7 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C80" s="11">
         <v>0.70833333333333337</v>
@@ -1432,7 +1438,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C81" s="11">
         <v>0.77083333333333337</v>
@@ -1441,7 +1447,7 @@
     <row r="82" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="83" spans="1:3" ht="20.25" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>14</v>
@@ -1493,7 +1499,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C88" s="11">
         <v>0.54166666666666663</v>
@@ -1515,7 +1521,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C90" s="11">
         <v>0.65277777777777779</v>
@@ -1546,10 +1552,10 @@
     <row r="93" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="94" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="10"/>
     </row>
@@ -1566,7 +1572,7 @@
     </row>
     <row r="96" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A96" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -1598,7 +1604,7 @@
         <v>0.5</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C99" s="11">
         <v>0.54166666666666663</v>
@@ -1620,7 +1626,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C101" s="11">
         <v>0.625</v>
@@ -1666,10 +1672,10 @@
     </row>
     <row r="106" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C106" s="10"/>
     </row>
@@ -1681,17 +1687,17 @@
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B108" s="9"/>
     </row>
     <row r="109" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="110" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C110" s="10"/>
     </row>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="112" spans="1:3" ht="20.25" customHeight="1">
       <c r="A112" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20.25" customHeight="1">
@@ -1711,7 +1717,7 @@
     </row>
     <row r="114" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>3</v>
@@ -1720,14 +1726,14 @@
     </row>
     <row r="115" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A115" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B115" s="9"/>
     </row>
     <row r="116" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="117" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A117" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>9</v>
@@ -1747,7 +1753,7 @@
     </row>
     <row r="119" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -1790,7 +1796,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C123" s="11">
         <v>0.625</v>
@@ -1801,7 +1807,7 @@
         <v>0.625</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C124" s="11">
         <v>0.6875</v>
@@ -1832,7 +1838,7 @@
     <row r="127" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="128" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A128" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>11</v>
@@ -1852,7 +1858,7 @@
     </row>
     <row r="130" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A130" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -1906,7 +1912,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C135" s="11">
         <v>0.625</v>
@@ -1917,7 +1923,7 @@
         <v>0.625</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C136" s="11">
         <v>0.66666666666666663</v>
@@ -1928,7 +1934,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C137" s="11">
         <v>0.72916666666666663</v>
@@ -1948,7 +1954,7 @@
     <row r="139" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="140" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>14</v>
@@ -1968,7 +1974,7 @@
     </row>
     <row r="142" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A142" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -2067,7 +2073,7 @@
         <v>57</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C152" s="10"/>
     </row>
@@ -2108,15 +2114,15 @@
         <v>16</v>
       </c>
       <c r="C156" s="11">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20.25" customHeight="1">
       <c r="A157" s="11">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C157" s="11">
         <v>0.54166666666666663</v>
@@ -2138,29 +2144,29 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C159" s="11">
-        <v>0.625</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20.25" customHeight="1">
       <c r="A160" s="11">
-        <v>0.625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C160" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20.25" customHeight="1">
       <c r="A161" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C161" s="11">
         <v>0.72916666666666663</v>
@@ -2187,7 +2193,7 @@
         <v>58</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C164" s="10"/>
     </row>
@@ -2199,7 +2205,7 @@
     </row>
     <row r="166" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A166" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B166" s="9"/>
     </row>
@@ -2209,7 +2215,7 @@
         <v>59</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C168" s="10"/>
     </row>
@@ -2221,73 +2227,155 @@
     </row>
     <row r="170" spans="1:3" ht="20.25" customHeight="1">
       <c r="A170" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20.25" customHeight="1">
       <c r="A171" s="14"/>
     </row>
-    <row r="172" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A172" s="14"/>
-    </row>
-    <row r="173" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A173" s="14"/>
-    </row>
-    <row r="174" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A174" s="14"/>
-    </row>
-    <row r="175" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A175" s="14"/>
+    <row r="172" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A172" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="10"/>
+    </row>
+    <row r="173" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A173" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A174" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+    </row>
+    <row r="175" spans="1:3" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A175" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="18">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="176" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A176" s="14"/>
-    </row>
-    <row r="177" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A177" s="14"/>
-    </row>
-    <row r="178" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A178" s="14"/>
-    </row>
-    <row r="179" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A179" s="14"/>
-    </row>
-    <row r="180" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A180" s="14"/>
-    </row>
-    <row r="181" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A181" s="14"/>
-    </row>
-    <row r="182" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A182" s="14"/>
-    </row>
-    <row r="183" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A176" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A177" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C177" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A178" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A179" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A180" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A181" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A182" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="20.25" customHeight="1">
       <c r="A183" s="14"/>
     </row>
-    <row r="184" spans="1:1" ht="20.25" customHeight="1">
+    <row r="184" spans="1:3" ht="20.25" customHeight="1">
       <c r="A184" s="14"/>
     </row>
-    <row r="185" spans="1:1" ht="20.25" customHeight="1">
+    <row r="185" spans="1:3" ht="20.25" customHeight="1">
       <c r="A185" s="14"/>
     </row>
-    <row r="186" spans="1:1" ht="20.25" customHeight="1">
+    <row r="186" spans="1:3" ht="20.25" customHeight="1">
       <c r="A186" s="14"/>
     </row>
-    <row r="187" spans="1:1" ht="20.25" customHeight="1">
+    <row r="187" spans="1:3" ht="20.25" customHeight="1">
       <c r="A187" s="14"/>
     </row>
-    <row r="188" spans="1:1" ht="20.25" customHeight="1">
+    <row r="188" spans="1:3" ht="20.25" customHeight="1">
       <c r="A188" s="14"/>
     </row>
-    <row r="189" spans="1:1" ht="20.25" customHeight="1">
+    <row r="189" spans="1:3" ht="20.25" customHeight="1">
       <c r="A189" s="14"/>
     </row>
-    <row r="190" spans="1:1" ht="20.25" customHeight="1">
+    <row r="190" spans="1:3" ht="20.25" customHeight="1">
       <c r="A190" s="14"/>
     </row>
-    <row r="191" spans="1:1" ht="20.25" customHeight="1">
+    <row r="191" spans="1:3" ht="20.25" customHeight="1">
       <c r="A191" s="14"/>
     </row>
-    <row r="192" spans="1:1" ht="20.25" customHeight="1">
+    <row r="192" spans="1:3" ht="20.25" customHeight="1">
       <c r="A192" s="14"/>
     </row>
     <row r="193" spans="1:1" ht="20.25" customHeight="1">

--- a/DAILY SCHEDULE.xlsx
+++ b/DAILY SCHEDULE.xlsx
@@ -718,7 +718,7 @@
   <dimension ref="A1:C387"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/DAILY SCHEDULE.xlsx
+++ b/DAILY SCHEDULE.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="165">
   <si>
     <t>STARTING TIME</t>
   </si>
@@ -51,9 +51,6 @@
     <t>LUNCH BREAK</t>
   </si>
   <si>
-    <t>TOOK NOTES AND PRACTISED COMMANDS</t>
-  </si>
-  <si>
     <t>EVENT : HOLIDAY</t>
   </si>
   <si>
@@ -78,15 +75,6 @@
     <t>DAY : THURSDAY</t>
   </si>
   <si>
-    <t>PYTHON AND PRACTISE</t>
-  </si>
-  <si>
-    <t>R LANGUAGE AND PRACTISE</t>
-  </si>
-  <si>
-    <t>JSON PRACTISE AND NOTES</t>
-  </si>
-  <si>
     <t>MENTOR : HEMA</t>
   </si>
   <si>
@@ -126,27 +114,15 @@
     <t>MENTOR : SELF</t>
   </si>
   <si>
-    <t>PYTHON, R, ML PRACTISE AT HOME - SELF</t>
-  </si>
-  <si>
-    <t>PYTHON, R, AI PRACTISE AT HOME - SELF</t>
-  </si>
-  <si>
     <t>MENTOR : NAVEEN</t>
   </si>
   <si>
     <t>MULE TRAINING - XML</t>
   </si>
   <si>
-    <t>XML PRACTISE AND NOTES</t>
-  </si>
-  <si>
     <t>MULE TRAINING - DATAWEAVE OPERATORS</t>
   </si>
   <si>
-    <t>DATAWEAVE OPERATORS PRACTISE AND NOTES</t>
-  </si>
-  <si>
     <t>DATE : 24 - 08 - 2023</t>
   </si>
   <si>
@@ -174,12 +150,6 @@
     <t>MULE TRAINING - MYSQL</t>
   </si>
   <si>
-    <t>MYSQL PRACTISE AND NOTES</t>
-  </si>
-  <si>
-    <t>NAME : GAYATHRI</t>
-  </si>
-  <si>
     <t>DAILY STUDY UPDATE</t>
   </si>
   <si>
@@ -201,29 +171,368 @@
     <t>MULE TRAINING - MULE INTRO AND INSTALLATIONS</t>
   </si>
   <si>
+    <t>DATE : 01 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 02 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 03 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 04 - 09 - 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULE CERTIFICATION COURSE VIDEOS </t>
+  </si>
+  <si>
+    <t>MENTOR : HEMA &amp; NAVEEN</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - TOPICS ON URI, QUERY, HEADERS, LOGGERS, VARIABLES</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - TO REMOVE IMAGES FROM A PDF</t>
+  </si>
+  <si>
+    <t>MULE CERTIFICATION COURSE VIDEOS</t>
+  </si>
+  <si>
+    <t>DATE : 05 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 06 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 07 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 08 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 09 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 10 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>MENTOR : SATYA</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - HTTP METHODS, REQUESTS, STATUS CODES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MULE TRAINING - TYPES OF FLOWS, DIFFERENCES, FLOW REFERENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MULE TRAINING - BULK COMPONENTS, STORED PROCEDURES</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - DATABASE INTRO TO MULE, SQL OPERATIONS</t>
+  </si>
+  <si>
+    <t>DATE : 11 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>PYTHON AND PRACTICE</t>
+  </si>
+  <si>
+    <t>R LANGUAGE AND PRACTICE</t>
+  </si>
+  <si>
+    <t>TOOK NOTES AND PRACTICED COMMANDS</t>
+  </si>
+  <si>
+    <t>JSON PRACTICE AND NOTES</t>
+  </si>
+  <si>
+    <t>XML PRACTICE AND NOTES</t>
+  </si>
+  <si>
+    <t>DATAWEAVE OPERATORS PRACTICE AND NOTES</t>
+  </si>
+  <si>
+    <t>MYSQL PRACTICE AND NOTES</t>
+  </si>
+  <si>
+    <t>MULE PRACTICE AND NOTES</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - ROUTING COMPONENTS</t>
+  </si>
+  <si>
+    <t>DATE : 12 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - TYPES OF WEB SERVICES, SOAP UI INSTALLATIONS, SOAP MESSAGE</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - CONSUME COMPONENT, DIFFERENCES BETWEEN SOAP AND REST</t>
+  </si>
+  <si>
+    <t>DATE : 13 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 14 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>MENTOR : NAVEEN &amp; GOWRI</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - VISUAL MAPPING, INSERTING DATA INTO DATABASE USING CONSUME</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - FOR EACH, PARALLEL FOR EACH &amp; DIFFERENCES, CHOICE ROUTER, ALTER</t>
+  </si>
+  <si>
+    <t>MULE HOMEWORK PRACTICE</t>
+  </si>
+  <si>
+    <t>DATE : 15 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 16 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 17 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 18 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>MENTOR : NAVEEN AND GOWRI</t>
+  </si>
+  <si>
+    <t>DATE : 19 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 20 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - URI AND QUERY PARAMETERS, IMPORT RAML TO ANYPOINT STUDIO</t>
+  </si>
+  <si>
+    <t>MULE TRAINING -  ANYPOINT INTRO, API LIFE CYCLE, RAML CREATION AND SPECIFICATIONS, PUBLISH</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - DATATYPES, FRAGMENTS, HOW TO USE THEM IN RAML, GET AND POST METHODS</t>
+  </si>
+  <si>
+    <t>DATE : 21 - 09 - 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENTOR : NAVEEN </t>
+  </si>
+  <si>
+    <t>DATE : 22 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 23 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 24 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - POST, PUT, DELETE METHODS, TRAITS, LIBRARY AND HOW TO USE THEM</t>
+  </si>
+  <si>
+    <t>DATE : 25 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - WAYS TO DEPLOY APP ON SERVERS, INTRO TO DEPLOYMENT SERVERS(RTF, CLOUDHUB)</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - DEPLOYMENT SERVERS INTRO(ON PREMISE), DEPLOYMENT METHODS ON CLOUDHUB</t>
+  </si>
+  <si>
+    <t>DATE : 26 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 27 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - API MANAGER</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - API AUTODISCOVERY</t>
+  </si>
+  <si>
+    <t>DATE : 28 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 29 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 30 - 09 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 01 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 02 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>MULE TRAINING -  INTRO TO POLICIES, DIFFERENT TYPES OF POLICIES</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - BASIC AUTHENTICATION, CLIENT ID ENFORCEMENT, SLA BASED RATE LIMITING</t>
+  </si>
+  <si>
+    <t>MENTOR : KHASIM</t>
+  </si>
+  <si>
+    <t>PYTHON, R, AI PRACTICE AT HOME - SELF</t>
+  </si>
+  <si>
+    <t>PYTHON, R, ML PRACTICE AT HOME - SELF</t>
+  </si>
+  <si>
+    <t>MULE TRAINING -  OAUTH 2.0 ACCESS TOKEN ENFORCEMENT POLICY</t>
+  </si>
+  <si>
+    <t>DATE : 03 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - PURPOSE OF PROXY, APPLYING PROXY TO THE APPLICATION</t>
+  </si>
+  <si>
+    <t>DATE : 04 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 05 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 06 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 07 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 08 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - FILE OPERATIONS LIKE READ, WRITE, COPY, DELETE, MOVE, LIST</t>
+  </si>
+  <si>
+    <t>MENTOR : VARUN</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - SECURE PROPERTIES INTRO, YAML</t>
+  </si>
+  <si>
+    <t>NAME : GAYATHRI. N</t>
+  </si>
+  <si>
+    <t>DATE : 09 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>MULE TRAINING -  SECURE PROPERTIES (.PROPERTIES, .YAML FILES)</t>
+  </si>
+  <si>
     <t>MULE PRACTISE AND NOTES</t>
   </si>
   <si>
-    <t>DATE : 01 - 09 - 2023</t>
-  </si>
-  <si>
-    <t>DATE : 02 - 09 - 2023</t>
-  </si>
-  <si>
-    <t>DATE : 03 - 09 - 2023</t>
-  </si>
-  <si>
-    <t>DATE : 04 - 09 - 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULE CERTIFICATION COURSE VIDEOS </t>
+    <t>DATE : 10 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 11 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>PPT PREPARATION AND SCHEDULE</t>
+  </si>
+  <si>
+    <t>SIRI CLASS</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - VMWARE INSTALLATION, SFTP OPERATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULE TRAINING - FILEZILLA CLIENT AND SERVER INSTALLATIONS, FTP OPERATIONS </t>
+  </si>
+  <si>
+    <t>MULE NOTES AND PRACTICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENTOR : VARUN </t>
+  </si>
+  <si>
+    <t>PPT PREPARATION</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - ONE WAY SSL, HELP.MULESOFT.COM</t>
+  </si>
+  <si>
+    <t>MENTOR : GOPI &amp; VARUN</t>
+  </si>
+  <si>
+    <t>DATE : 12 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>MENTOR : KHASIM, GOWRI &amp; VARUN</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - BATCH PROCESSING</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - ERROR HANDLING</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - SALESFORCE INTRO, ACCOUNT CREATION AND CREATING OBJECT IN WORKBENCH</t>
+  </si>
+  <si>
+    <t>DATE : 13 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - CREATING OBJECTS &amp; FIELDS IN SF, LOOKUP RELATIONSHIP USING SCHEMA BUILDER</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - APP LAUNCHER TO INSTALL APP,CREATED TRAILHEAD ACCOUNT,WORKBENCH OPERATIONS</t>
+  </si>
+  <si>
+    <t>DATE : 14 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 15 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>DATE : 16 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - INTRODUCTION TO MESSAGING QUERY, RABBIT MQ</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - SALESFORCE ACCOUNT CREATION, SALESFORCE COMPONENTS IN STUDIO</t>
+  </si>
+  <si>
+    <t>DATE : 17 - 10 - 2023</t>
+  </si>
+  <si>
+    <t>MENTOR : KHASIM &amp; VARUN</t>
+  </si>
+  <si>
+    <t>PYTHON NOTES PREPARATION</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - BATCH PROCESSING DOUBT, MASKING PROPERTIES</t>
+  </si>
+  <si>
+    <t>MULE TRAINING - ANYPOINT MQ</t>
+  </si>
+  <si>
+    <t>MENTOR : KHASIM &amp; GOPI</t>
+  </si>
+  <si>
+    <t>PYTHON CLASS PREPARATION</t>
+  </si>
+  <si>
+    <t>DATE : 18 - 10 - 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +634,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -346,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,10 +693,16 @@
     <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="18" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -715,27 +1036,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C387"/>
+  <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A563" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B582" sqref="B582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="94.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1"/>
@@ -761,7 +1082,7 @@
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -771,7 +1092,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="11">
         <v>0.54166666666666663</v>
@@ -793,10 +1114,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.25" customHeight="1">
@@ -804,7 +1125,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C10" s="11">
         <v>0.70833333333333337</v>
@@ -813,25 +1134,25 @@
     <row r="11" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="12" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="C15" s="10"/>
     </row>
@@ -848,7 +1169,7 @@
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -858,7 +1179,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="11">
         <v>0.54166666666666663</v>
@@ -880,7 +1201,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C20" s="11">
         <v>0.6875</v>
@@ -891,7 +1212,7 @@
         <v>0.6875</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="11">
         <v>0.72916666666666663</v>
@@ -902,7 +1223,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C22" s="11">
         <v>0.77083333333333337</v>
@@ -915,10 +1236,10 @@
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="C24" s="10"/>
     </row>
@@ -935,7 +1256,7 @@
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -945,7 +1266,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C27" s="11">
         <v>0.4375</v>
@@ -956,7 +1277,7 @@
         <v>0.4375</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C28" s="11">
         <v>0.47916666666666669</v>
@@ -967,7 +1288,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C29" s="11">
         <v>0.54166666666666663</v>
@@ -989,7 +1310,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C31" s="11">
         <v>0.66666666666666663</v>
@@ -1000,7 +1321,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C32" s="11">
         <v>0.72916666666666663</v>
@@ -1011,7 +1332,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C33" s="11">
         <v>0.77083333333333337</v>
@@ -1020,10 +1341,10 @@
     <row r="34" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C35" s="10"/>
     </row>
@@ -1040,7 +1361,7 @@
     </row>
     <row r="37" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1050,7 +1371,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C38" s="11">
         <v>0.4375</v>
@@ -1061,7 +1382,7 @@
         <v>0.4375</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C39" s="11">
         <v>0.5</v>
@@ -1072,7 +1393,7 @@
         <v>0.5</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C40" s="11">
         <v>0.54166666666666663</v>
@@ -1094,7 +1415,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C42" s="11">
         <v>0.625</v>
@@ -1105,7 +1426,7 @@
         <v>0.625</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C43" s="11">
         <v>0.66666666666666663</v>
@@ -1116,7 +1437,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C44" s="11">
         <v>0.72916666666666663</v>
@@ -1129,50 +1450,50 @@
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="50" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C50" s="10"/>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:3" ht="20.25" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="54" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>3</v>
@@ -1192,7 +1513,7 @@
     </row>
     <row r="56" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1202,7 +1523,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C57" s="11">
         <v>0.4375</v>
@@ -1213,7 +1534,7 @@
         <v>0.4375</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C58" s="11">
         <v>0.5</v>
@@ -1224,7 +1545,7 @@
         <v>0.5</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C59" s="11">
         <v>0.54166666666666663</v>
@@ -1246,7 +1567,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C61" s="11">
         <v>0.625</v>
@@ -1257,7 +1578,7 @@
         <v>0.625</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C62" s="11">
         <v>0.6875</v>
@@ -1268,7 +1589,7 @@
         <v>0.6875</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C63" s="11">
         <v>0.72916666666666663</v>
@@ -1279,7 +1600,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C64" s="11">
         <v>0.77083333333333337</v>
@@ -1288,10 +1609,10 @@
     <row r="65" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="66" spans="1:3" ht="20.25" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66" s="10"/>
     </row>
@@ -1308,7 +1629,7 @@
     </row>
     <row r="68" spans="1:3" ht="20.25" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1318,7 +1639,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C69" s="11">
         <v>0.45833333333333331</v>
@@ -1329,7 +1650,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C70" s="11">
         <v>0.5</v>
@@ -1342,10 +1663,10 @@
     </row>
     <row r="72" spans="1:3" ht="20.25" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" s="10"/>
     </row>
@@ -1362,7 +1683,7 @@
     </row>
     <row r="74" spans="1:3" ht="20.25" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1372,7 +1693,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C75" s="11">
         <v>0.4375</v>
@@ -1383,7 +1704,7 @@
         <v>0.4375</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C76" s="11">
         <v>0.5</v>
@@ -1394,7 +1715,7 @@
         <v>0.5</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C77" s="11">
         <v>0.54166666666666663</v>
@@ -1416,7 +1737,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C79" s="11">
         <v>0.65277777777777779</v>
@@ -1427,7 +1748,7 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C80" s="11">
         <v>0.70833333333333337</v>
@@ -1438,7 +1759,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C81" s="11">
         <v>0.77083333333333337</v>
@@ -1447,10 +1768,10 @@
     <row r="82" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="83" spans="1:3" ht="20.25" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C83" s="10"/>
     </row>
@@ -1467,7 +1788,7 @@
     </row>
     <row r="85" spans="1:3" ht="20.25" customHeight="1">
       <c r="A85" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -1477,7 +1798,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C86" s="11">
         <v>0.4375</v>
@@ -1488,7 +1809,7 @@
         <v>0.4375</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C87" s="11">
         <v>0.47916666666666669</v>
@@ -1499,7 +1820,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C88" s="11">
         <v>0.54166666666666663</v>
@@ -1521,7 +1842,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C90" s="11">
         <v>0.65277777777777779</v>
@@ -1532,7 +1853,7 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C91" s="11">
         <v>0.70833333333333337</v>
@@ -1543,7 +1864,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C92" s="11">
         <v>0.77083333333333337</v>
@@ -1552,10 +1873,10 @@
     <row r="93" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="94" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C94" s="10"/>
     </row>
@@ -1572,7 +1893,7 @@
     </row>
     <row r="96" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A96" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -1582,7 +1903,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C97" s="11">
         <v>0.4375</v>
@@ -1593,7 +1914,7 @@
         <v>0.4375</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C98" s="11">
         <v>0.5</v>
@@ -1604,7 +1925,7 @@
         <v>0.5</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C99" s="11">
         <v>0.54166666666666663</v>
@@ -1626,7 +1947,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C101" s="11">
         <v>0.625</v>
@@ -1637,7 +1958,7 @@
         <v>0.625</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C102" s="11">
         <v>0.66666666666666663</v>
@@ -1648,7 +1969,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C103" s="11">
         <v>0.72916666666666663</v>
@@ -1659,7 +1980,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C104" s="11">
         <v>0.77083333333333337</v>
@@ -1672,44 +1993,44 @@
     </row>
     <row r="106" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B107" s="9"/>
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B108" s="9"/>
     </row>
     <row r="109" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="110" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C110" s="10"/>
     </row>
     <row r="111" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B111" s="9"/>
     </row>
     <row r="112" spans="1:3" ht="20.25" customHeight="1">
       <c r="A112" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20.25" customHeight="1">
@@ -1717,7 +2038,7 @@
     </row>
     <row r="114" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>3</v>
@@ -1726,17 +2047,17 @@
     </row>
     <row r="115" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A115" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B115" s="9"/>
     </row>
     <row r="116" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="117" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A117" s="8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117" s="10"/>
     </row>
@@ -1753,7 +2074,7 @@
     </row>
     <row r="119" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -1763,7 +2084,7 @@
         <v>0.4375</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C120" s="11">
         <v>0.5</v>
@@ -1774,7 +2095,7 @@
         <v>0.5</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C121" s="11">
         <v>0.54166666666666663</v>
@@ -1796,7 +2117,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C123" s="11">
         <v>0.625</v>
@@ -1807,7 +2128,7 @@
         <v>0.625</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C124" s="11">
         <v>0.6875</v>
@@ -1818,7 +2139,7 @@
         <v>0.6875</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C125" s="11">
         <v>0.72916666666666663</v>
@@ -1829,7 +2150,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C126" s="11">
         <v>0.77083333333333337</v>
@@ -1838,10 +2159,10 @@
     <row r="127" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="128" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A128" s="8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C128" s="10"/>
     </row>
@@ -1858,19 +2179,19 @@
     </row>
     <row r="130" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A130" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
     </row>
-    <row r="131" spans="1:3" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="131" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
       <c r="A131" s="16">
         <v>0.39583333333333331</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" s="18">
+        <v>67</v>
+      </c>
+      <c r="C131" s="16">
         <v>0.4375</v>
       </c>
     </row>
@@ -1879,7 +2200,7 @@
         <v>0.4375</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C132" s="11">
         <v>0.5</v>
@@ -1890,7 +2211,7 @@
         <v>0.5</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C133" s="11">
         <v>0.54166666666666663</v>
@@ -1912,7 +2233,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C135" s="11">
         <v>0.625</v>
@@ -1923,7 +2244,7 @@
         <v>0.625</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C136" s="11">
         <v>0.66666666666666663</v>
@@ -1934,7 +2255,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C137" s="11">
         <v>0.72916666666666663</v>
@@ -1945,7 +2266,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C138" s="11">
         <v>0.77083333333333337</v>
@@ -1954,10 +2275,10 @@
     <row r="139" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="140" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C140" s="10"/>
     </row>
@@ -1974,19 +2295,19 @@
     </row>
     <row r="142" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A142" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="1:3" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="143" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
       <c r="A143" s="16">
         <v>0.39583333333333331</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" s="18">
+        <v>67</v>
+      </c>
+      <c r="C143" s="16">
         <v>0.4375</v>
       </c>
     </row>
@@ -1995,7 +2316,7 @@
         <v>0.4375</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C144" s="11">
         <v>0.5</v>
@@ -2006,7 +2327,7 @@
         <v>0.5</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C145" s="11">
         <v>0.54166666666666663</v>
@@ -2028,7 +2349,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C147" s="11">
         <v>0.625</v>
@@ -2039,7 +2360,7 @@
         <v>0.625</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C148" s="11">
         <v>0.66666666666666663</v>
@@ -2050,7 +2371,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C149" s="11">
         <v>0.72916666666666663</v>
@@ -2061,7 +2382,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C150" s="11">
         <v>0.77083333333333337</v>
@@ -2070,10 +2391,10 @@
     <row r="151" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="152" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A152" s="8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C152" s="10"/>
     </row>
@@ -2090,19 +2411,19 @@
     </row>
     <row r="154" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A154" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="1:3" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="155" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
       <c r="A155" s="16">
         <v>0.39583333333333331</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C155" s="18">
+        <v>67</v>
+      </c>
+      <c r="C155" s="16">
         <v>0.4375</v>
       </c>
     </row>
@@ -2111,7 +2432,7 @@
         <v>0.4375</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C156" s="11">
         <v>0.47916666666666669</v>
@@ -2122,7 +2443,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C157" s="11">
         <v>0.54166666666666663</v>
@@ -2144,7 +2465,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C159" s="11">
         <v>0.64583333333333337</v>
@@ -2155,7 +2476,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C160" s="11">
         <v>0.6875</v>
@@ -2166,7 +2487,7 @@
         <v>0.6875</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C161" s="11">
         <v>0.72916666666666663</v>
@@ -2177,7 +2498,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C162" s="11">
         <v>0.77083333333333337</v>
@@ -2190,44 +2511,44 @@
     </row>
     <row r="164" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A164" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C164" s="10"/>
     </row>
     <row r="165" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B165" s="9"/>
     </row>
     <row r="166" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A166" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B166" s="9"/>
     </row>
     <row r="167" spans="1:3" ht="20.25" customHeight="1"/>
     <row r="168" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A168" s="8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C168" s="10"/>
     </row>
     <row r="169" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B169" s="9"/>
     </row>
     <row r="170" spans="1:3" ht="20.25" customHeight="1">
       <c r="A170" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20.25" customHeight="1">
@@ -2235,7 +2556,7 @@
     </row>
     <row r="172" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A172" s="8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>3</v>
@@ -2255,19 +2576,19 @@
     </row>
     <row r="174" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A174" s="7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
     </row>
-    <row r="175" spans="1:3" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="175" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
       <c r="A175" s="16">
         <v>0.39583333333333331</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" s="18">
+        <v>67</v>
+      </c>
+      <c r="C175" s="16">
         <v>0.4375</v>
       </c>
     </row>
@@ -2276,18 +2597,18 @@
         <v>0.4375</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C176" s="11">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20.25" customHeight="1">
       <c r="A177" s="11">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C177" s="11">
         <v>0.54166666666666663</v>
@@ -2309,7 +2630,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C179" s="11">
         <v>0.64583333333333337</v>
@@ -2320,7 +2641,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C180" s="11">
         <v>0.6875</v>
@@ -2331,7 +2652,7 @@
         <v>0.6875</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C181" s="11">
         <v>0.72916666666666663</v>
@@ -2342,7 +2663,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C182" s="11">
         <v>0.77083333333333337</v>
@@ -2351,618 +2672,4083 @@
     <row r="183" spans="1:3" ht="20.25" customHeight="1">
       <c r="A183" s="14"/>
     </row>
-    <row r="184" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A184" s="14"/>
-    </row>
-    <row r="185" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A185" s="14"/>
-    </row>
-    <row r="186" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A186" s="14"/>
-    </row>
-    <row r="187" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A187" s="14"/>
+    <row r="184" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A184" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="10"/>
+    </row>
+    <row r="185" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A185" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A186" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+    </row>
+    <row r="187" spans="1:3" s="18" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A187" s="16">
+        <v>0.40625</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C187" s="16">
+        <v>0.45833333333333331</v>
+      </c>
     </row>
     <row r="188" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A188" s="14"/>
+      <c r="A188" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C188" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="189" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A189" s="14"/>
+      <c r="A189" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C189" s="11">
+        <v>0.54166666666666663</v>
+      </c>
     </row>
     <row r="190" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A190" s="14"/>
+      <c r="A190" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="11">
+        <v>0.58333333333333337</v>
+      </c>
     </row>
     <row r="191" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A191" s="14"/>
+      <c r="A191" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C191" s="11">
+        <v>0.64583333333333337</v>
+      </c>
     </row>
     <row r="192" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A192" s="14"/>
-    </row>
-    <row r="193" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A193" s="14"/>
-    </row>
-    <row r="194" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A194" s="14"/>
-    </row>
-    <row r="195" spans="1:1" ht="20.25" customHeight="1">
+      <c r="A192" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C192" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A193" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C193" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A194" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C194" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="20.25" customHeight="1">
       <c r="A195" s="14"/>
     </row>
-    <row r="196" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A196" s="14"/>
-    </row>
-    <row r="197" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A197" s="14"/>
-    </row>
-    <row r="198" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A198" s="14"/>
-    </row>
-    <row r="199" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A199" s="14"/>
-    </row>
-    <row r="200" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A200" s="14"/>
-    </row>
-    <row r="201" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A201" s="14"/>
-    </row>
-    <row r="202" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A202" s="14"/>
-    </row>
-    <row r="203" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A203" s="14"/>
-    </row>
-    <row r="204" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A204" s="14"/>
-    </row>
-    <row r="205" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A205" s="14"/>
-    </row>
-    <row r="206" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A206" s="14"/>
-    </row>
-    <row r="207" spans="1:1" ht="20.25" customHeight="1">
+    <row r="196" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A196" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="10"/>
+    </row>
+    <row r="197" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A197" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A198" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+    </row>
+    <row r="199" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A199" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B199" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C199" s="16">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A200" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C200" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A201" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C201" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A202" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A203" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C203" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A204" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C204" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A205" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C205" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A206" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C206" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="20.25" customHeight="1">
       <c r="A207" s="14"/>
     </row>
-    <row r="208" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A208" s="14"/>
-    </row>
-    <row r="209" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A209" s="14"/>
-    </row>
-    <row r="210" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A210" s="14"/>
-    </row>
-    <row r="211" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A211" s="14"/>
-    </row>
-    <row r="212" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A212" s="14"/>
-    </row>
-    <row r="213" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A213" s="14"/>
-    </row>
-    <row r="214" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A214" s="14"/>
-    </row>
-    <row r="215" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A215" s="14"/>
-    </row>
-    <row r="216" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A216" s="14"/>
-    </row>
-    <row r="217" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A217" s="14"/>
-    </row>
-    <row r="218" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A218" s="14"/>
-    </row>
-    <row r="219" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A219" s="14"/>
-    </row>
-    <row r="220" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A220" s="14"/>
-    </row>
-    <row r="221" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A221" s="14"/>
-    </row>
-    <row r="222" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A222" s="14"/>
-    </row>
-    <row r="223" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A223" s="14"/>
-    </row>
-    <row r="224" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A224" s="14"/>
-    </row>
-    <row r="225" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A225" s="14"/>
-    </row>
-    <row r="226" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A226" s="14"/>
-    </row>
-    <row r="227" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A227" s="14"/>
-    </row>
-    <row r="228" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A228" s="14"/>
-    </row>
-    <row r="229" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A229" s="14"/>
-    </row>
-    <row r="230" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A230" s="14"/>
-    </row>
-    <row r="231" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A231" s="14"/>
-    </row>
-    <row r="232" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A232" s="14"/>
-    </row>
-    <row r="233" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A233" s="14"/>
-    </row>
-    <row r="234" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A234" s="14"/>
-    </row>
-    <row r="235" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A235" s="14"/>
-    </row>
-    <row r="236" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A236" s="14"/>
-    </row>
-    <row r="237" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A237" s="14"/>
-    </row>
-    <row r="238" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A238" s="14"/>
-    </row>
-    <row r="239" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A239" s="14"/>
-    </row>
-    <row r="240" spans="1:1" ht="20.25" customHeight="1">
+    <row r="208" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A208" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" s="10"/>
+    </row>
+    <row r="209" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A209" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A210" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7"/>
+    </row>
+    <row r="211" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A211" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C211" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A212" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C212" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A213" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C213" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A214" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A215" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C215" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A216" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C216" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A217" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C217" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A218" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C218" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="220" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A220" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C220" s="10"/>
+    </row>
+    <row r="221" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A221" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A222" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B222" s="7"/>
+      <c r="C222" s="7"/>
+    </row>
+    <row r="223" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A223" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="B223" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C223" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A224" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C224" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A225" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C225" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A226" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A227" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A228" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C228" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A229" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C229" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A230" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C230" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A231" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C231" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A232" s="11"/>
+      <c r="B232" s="12"/>
+      <c r="C232" s="11"/>
+    </row>
+    <row r="233" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A233" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="10"/>
+    </row>
+    <row r="234" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A234" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="9"/>
+    </row>
+    <row r="235" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A235" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B235" s="9"/>
+    </row>
+    <row r="236" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="237" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A237" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C237" s="10"/>
+    </row>
+    <row r="238" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A238" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" s="9"/>
+    </row>
+    <row r="239" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A239" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="20.25" customHeight="1">
       <c r="A240" s="14"/>
     </row>
-    <row r="241" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A241" s="14"/>
-    </row>
-    <row r="242" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A242" s="14"/>
-    </row>
-    <row r="243" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A243" s="14"/>
-    </row>
-    <row r="244" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A244" s="14"/>
-    </row>
-    <row r="245" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A245" s="14"/>
-    </row>
-    <row r="246" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A246" s="14"/>
-    </row>
-    <row r="247" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A247" s="14"/>
-    </row>
-    <row r="248" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A248" s="14"/>
-    </row>
-    <row r="249" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A249" s="14"/>
-    </row>
-    <row r="250" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A250" s="14"/>
-    </row>
-    <row r="251" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A251" s="14"/>
-    </row>
-    <row r="252" spans="1:1" ht="20.25" customHeight="1">
+    <row r="241" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A241" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="10"/>
+    </row>
+    <row r="242" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A242" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A243" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B243" s="7"/>
+      <c r="C243" s="7"/>
+    </row>
+    <row r="244" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A244" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B244" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C244" s="16">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A245" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C245" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A246" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C246" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A247" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A248" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C248" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A249" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C249" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A250" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C250" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A251" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C251" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="20.25" customHeight="1">
       <c r="A252" s="14"/>
     </row>
-    <row r="253" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A253" s="14"/>
-    </row>
-    <row r="254" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A254" s="14"/>
-    </row>
-    <row r="255" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A255" s="14"/>
-    </row>
-    <row r="256" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A256" s="14"/>
-    </row>
-    <row r="257" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A257" s="14"/>
-    </row>
-    <row r="258" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A258" s="14"/>
-    </row>
-    <row r="259" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A259" s="14"/>
-    </row>
-    <row r="260" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A260" s="14"/>
-    </row>
-    <row r="261" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A261" s="14"/>
-    </row>
-    <row r="262" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A262" s="14"/>
-    </row>
-    <row r="263" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A263" s="14"/>
-    </row>
-    <row r="264" spans="1:1" ht="20.25" customHeight="1">
+    <row r="253" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A253" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="10"/>
+    </row>
+    <row r="254" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A254" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A255" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7"/>
+    </row>
+    <row r="256" spans="1:3" s="18" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A256" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C256" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A257" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C257" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A258" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C258" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A259" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A260" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C260" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A261" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C261" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A262" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C262" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A263" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C263" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="20.25" customHeight="1">
       <c r="A264" s="14"/>
     </row>
-    <row r="265" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A265" s="14"/>
-    </row>
-    <row r="266" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A266" s="14"/>
-    </row>
-    <row r="267" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A267" s="14"/>
-    </row>
-    <row r="268" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A268" s="14"/>
-    </row>
-    <row r="269" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A269" s="14"/>
-    </row>
-    <row r="270" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A270" s="14"/>
-    </row>
-    <row r="271" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A271" s="14"/>
-    </row>
-    <row r="272" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A272" s="14"/>
-    </row>
-    <row r="273" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A273" s="14"/>
-    </row>
-    <row r="274" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A274" s="14"/>
-    </row>
-    <row r="275" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A275" s="14"/>
-    </row>
-    <row r="276" spans="1:1" ht="20.25" customHeight="1">
+    <row r="265" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A265" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" s="10"/>
+    </row>
+    <row r="266" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A266" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A267" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B267" s="7"/>
+      <c r="C267" s="7"/>
+    </row>
+    <row r="268" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A268" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B268" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C268" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A269" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C269" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A270" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C270" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A271" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A272" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C272" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A273" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C273" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A274" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C274" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A275" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C275" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="20.25" customHeight="1">
       <c r="A276" s="14"/>
     </row>
-    <row r="277" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A277" s="14"/>
-    </row>
-    <row r="278" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A278" s="14"/>
-    </row>
-    <row r="279" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A279" s="14"/>
-    </row>
-    <row r="280" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A280" s="14"/>
-    </row>
-    <row r="281" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A281" s="14"/>
-    </row>
-    <row r="282" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A282" s="14"/>
-    </row>
-    <row r="283" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A283" s="14"/>
-    </row>
-    <row r="284" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A284" s="14"/>
-    </row>
-    <row r="285" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A285" s="14"/>
-    </row>
-    <row r="286" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A286" s="14"/>
-    </row>
-    <row r="287" spans="1:1" ht="20.25" customHeight="1">
+    <row r="277" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A277" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" s="10"/>
+    </row>
+    <row r="278" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A278" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A279" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B279" s="7"/>
+      <c r="C279" s="7"/>
+    </row>
+    <row r="280" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A280" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B280" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C280" s="16">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A281" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C281" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A282" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C282" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A283" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C283" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A284" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A285" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C285" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A286" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C286" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="20.25" customHeight="1">
       <c r="A287" s="14"/>
     </row>
-    <row r="288" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A288" s="14"/>
-    </row>
-    <row r="289" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A289" s="14"/>
-    </row>
-    <row r="290" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A290" s="14"/>
-    </row>
-    <row r="291" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A291" s="14"/>
-    </row>
-    <row r="292" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A292" s="14"/>
-    </row>
-    <row r="293" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A293" s="14"/>
-    </row>
-    <row r="294" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A294" s="14"/>
-    </row>
-    <row r="295" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A295" s="14"/>
-    </row>
-    <row r="296" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A296" s="14"/>
-    </row>
-    <row r="297" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A297" s="14"/>
-    </row>
-    <row r="298" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A298" s="14"/>
-    </row>
-    <row r="299" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A299" s="14"/>
-    </row>
-    <row r="300" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A300" s="14"/>
-    </row>
-    <row r="301" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A301" s="14"/>
-    </row>
-    <row r="302" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A302" s="14"/>
-    </row>
-    <row r="303" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A303" s="14"/>
-    </row>
-    <row r="304" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A304" s="14"/>
-    </row>
-    <row r="305" spans="1:1" ht="20.25" customHeight="1">
+    <row r="288" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A288" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C288" s="10"/>
+    </row>
+    <row r="289" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A289" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A290" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B290" s="7"/>
+      <c r="C290" s="7"/>
+    </row>
+    <row r="291" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A291" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B291" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C291" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A292" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C292" s="11">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A293" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C293" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A294" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C294" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A295" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C295" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A296" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A297" s="11"/>
+      <c r="B297" s="12"/>
+      <c r="C297" s="11"/>
+    </row>
+    <row r="298" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A298" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C298" s="10"/>
+    </row>
+    <row r="299" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A299" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B299" s="9"/>
+    </row>
+    <row r="300" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A300" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B300" s="9"/>
+    </row>
+    <row r="301" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="302" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A302" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C302" s="10"/>
+    </row>
+    <row r="303" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A303" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B303" s="9"/>
+    </row>
+    <row r="304" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A304" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="20.25" customHeight="1">
       <c r="A305" s="14"/>
     </row>
-    <row r="306" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A306" s="14"/>
-    </row>
-    <row r="307" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A307" s="14"/>
-    </row>
-    <row r="308" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A308" s="14"/>
-    </row>
-    <row r="309" spans="1:1" ht="20.25" customHeight="1">
+    <row r="306" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A306" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306" s="10"/>
+    </row>
+    <row r="307" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A307" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B307" s="9"/>
+    </row>
+    <row r="308" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A308" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="20.25" customHeight="1">
       <c r="A309" s="14"/>
     </row>
-    <row r="310" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A310" s="14"/>
-    </row>
-    <row r="311" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A311" s="14"/>
-    </row>
-    <row r="312" spans="1:1" ht="20.25" customHeight="1">
+    <row r="310" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A310" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C310" s="10"/>
+    </row>
+    <row r="311" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A311" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B311" s="9"/>
+    </row>
+    <row r="312" spans="1:3" ht="20.25" customHeight="1">
       <c r="A312" s="14"/>
     </row>
-    <row r="313" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A313" s="14"/>
-    </row>
-    <row r="314" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A314" s="14"/>
-    </row>
-    <row r="315" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A315" s="14"/>
-    </row>
-    <row r="316" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A316" s="14"/>
-    </row>
-    <row r="317" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A317" s="14"/>
-    </row>
-    <row r="318" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A318" s="14"/>
-    </row>
-    <row r="319" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A319" s="14"/>
-    </row>
-    <row r="320" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A320" s="14"/>
-    </row>
-    <row r="321" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A321" s="14"/>
-    </row>
-    <row r="322" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A322" s="14"/>
-    </row>
-    <row r="323" spans="1:1" ht="20.25" customHeight="1">
+    <row r="313" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A313" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" s="10"/>
+    </row>
+    <row r="314" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A314" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A315" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B315" s="7"/>
+      <c r="C315" s="7"/>
+    </row>
+    <row r="316" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A316" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B316" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C316" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A317" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B317" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C317" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A318" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A319" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C319" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A320" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C320" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A321" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B321" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C321" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A322" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C322" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="20.25" customHeight="1">
       <c r="A323" s="14"/>
     </row>
-    <row r="324" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A324" s="14"/>
-    </row>
-    <row r="325" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A325" s="14"/>
-    </row>
-    <row r="326" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A326" s="14"/>
-    </row>
-    <row r="327" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A327" s="14"/>
-    </row>
-    <row r="328" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A328" s="14"/>
-    </row>
-    <row r="329" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A329" s="14"/>
-    </row>
-    <row r="330" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A330" s="14"/>
-    </row>
-    <row r="331" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A331" s="14"/>
-    </row>
-    <row r="332" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A332" s="14"/>
-    </row>
-    <row r="333" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A333" s="14"/>
-    </row>
-    <row r="334" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A334" s="14"/>
-    </row>
-    <row r="335" spans="1:1" ht="20.25" customHeight="1">
+    <row r="324" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A324" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" s="10"/>
+    </row>
+    <row r="325" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A325" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A326" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B326" s="7"/>
+      <c r="C326" s="7"/>
+    </row>
+    <row r="327" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A327" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B327" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C327" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A328" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B328" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C328" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A329" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B329" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C329" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A330" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A331" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B331" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C331" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A332" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C332" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A333" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B333" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C333" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A334" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B334" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C334" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="20.25" customHeight="1">
       <c r="A335" s="14"/>
     </row>
-    <row r="336" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A336" s="14"/>
-    </row>
-    <row r="337" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A337" s="14"/>
-    </row>
-    <row r="338" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A338" s="14"/>
-    </row>
-    <row r="339" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A339" s="14"/>
-    </row>
-    <row r="340" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A340" s="14"/>
-    </row>
-    <row r="341" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A341" s="14"/>
-    </row>
-    <row r="342" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A342" s="14"/>
-    </row>
-    <row r="343" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A343" s="14"/>
-    </row>
-    <row r="344" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A344" s="14"/>
-    </row>
-    <row r="345" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A345" s="14"/>
-    </row>
-    <row r="346" spans="1:1" ht="20.25" customHeight="1">
+    <row r="336" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A336" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C336" s="10"/>
+    </row>
+    <row r="337" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A337" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A338" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B338" s="7"/>
+      <c r="C338" s="7"/>
+    </row>
+    <row r="339" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A339" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C339" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A340" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C340" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A341" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B341" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C341" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A342" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A343" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C343" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A344" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C344" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A345" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C345" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="20.25" customHeight="1">
       <c r="A346" s="14"/>
     </row>
-    <row r="347" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A347" s="14"/>
-    </row>
-    <row r="348" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A348" s="14"/>
-    </row>
-    <row r="349" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A349" s="14"/>
-    </row>
-    <row r="350" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A350" s="14"/>
-    </row>
-    <row r="351" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A351" s="14"/>
-    </row>
-    <row r="352" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A352" s="14"/>
-    </row>
-    <row r="353" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A353" s="14"/>
-    </row>
-    <row r="354" spans="1:1" ht="20.25" customHeight="1">
+    <row r="347" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A347" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C347" s="10"/>
+    </row>
+    <row r="348" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A348" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B348" s="9"/>
+    </row>
+    <row r="349" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A349" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B349" s="9"/>
+    </row>
+    <row r="350" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="351" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A351" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C351" s="10"/>
+    </row>
+    <row r="352" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A352" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B352" s="9"/>
+    </row>
+    <row r="353" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A353" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="20.25" customHeight="1">
       <c r="A354" s="14"/>
     </row>
-    <row r="355" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A355" s="14"/>
-    </row>
-    <row r="356" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A356" s="14"/>
-    </row>
-    <row r="357" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A357" s="14"/>
-    </row>
-    <row r="358" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A358" s="14"/>
-    </row>
-    <row r="359" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A359" s="14"/>
-    </row>
-    <row r="360" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A360" s="14"/>
-    </row>
-    <row r="361" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A361" s="14"/>
-    </row>
-    <row r="362" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A362" s="14"/>
-    </row>
-    <row r="363" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A363" s="14"/>
-    </row>
-    <row r="364" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A364" s="14"/>
-    </row>
-    <row r="365" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A365" s="14"/>
-    </row>
-    <row r="366" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A366" s="14"/>
-    </row>
-    <row r="367" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A367" s="14"/>
-    </row>
-    <row r="368" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A368" s="14"/>
-    </row>
-    <row r="369" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A369" s="14"/>
-    </row>
-    <row r="370" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A370" s="14"/>
-    </row>
-    <row r="371" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A371" s="14"/>
-    </row>
-    <row r="372" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A372" s="14"/>
-    </row>
-    <row r="373" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A373" s="14"/>
-    </row>
-    <row r="374" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A374" s="14"/>
-    </row>
-    <row r="375" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A375" s="14"/>
-    </row>
-    <row r="376" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A376" s="14"/>
-    </row>
-    <row r="377" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A377" s="14"/>
-    </row>
-    <row r="378" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A378" s="14"/>
-    </row>
-    <row r="379" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A379" s="14"/>
-    </row>
-    <row r="380" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A380" s="14"/>
-    </row>
-    <row r="381" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A381" s="14"/>
-    </row>
-    <row r="382" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A382" s="14"/>
-    </row>
-    <row r="383" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A383" s="14"/>
-    </row>
-    <row r="384" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A384" s="14"/>
-    </row>
-    <row r="385" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A385" s="14"/>
-    </row>
-    <row r="386" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A386" s="14"/>
-    </row>
-    <row r="387" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A387" s="14"/>
-    </row>
+    <row r="355" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A355" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" s="10"/>
+    </row>
+    <row r="356" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A356" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A357" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B357" s="7"/>
+      <c r="C357" s="7"/>
+    </row>
+    <row r="358" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A358" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B358" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C358" s="16">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A359" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C359" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A360" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C360" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A361" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A362" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C362" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A363" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B363" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C363" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A364" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B364" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C364" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A365" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B365" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C365" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="367" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A367" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" s="10"/>
+    </row>
+    <row r="368" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A368" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A369" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B369" s="7"/>
+      <c r="C369" s="7"/>
+    </row>
+    <row r="370" spans="1:3" s="18" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A370" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B370" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C370" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A371" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B371" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C371" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A372" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B372" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C372" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A373" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B373" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A374" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B374" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C374" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A375" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B375" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C375" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A376" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B376" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C376" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A377" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B377" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C377" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="379" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A379" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C379" s="10"/>
+    </row>
+    <row r="380" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A380" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A381" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B381" s="7"/>
+      <c r="C381" s="7"/>
+    </row>
+    <row r="382" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A382" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B382" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C382" s="16">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A383" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B383" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C383" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A384" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B384" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C384" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A385" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B385" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A386" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B386" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C386" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A387" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B387" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C387" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A388" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B388" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C388" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A389" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B389" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C389" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="391" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A391" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C391" s="10"/>
+    </row>
+    <row r="392" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A392" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A393" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B393" s="7"/>
+      <c r="C393" s="7"/>
+    </row>
+    <row r="394" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A394" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B394" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C394" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A395" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B395" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C395" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A396" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B396" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C396" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A397" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B397" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A398" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B398" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C398" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A399" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B399" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C399" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A400" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B400" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C400" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A401" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B401" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C401" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="403" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A403" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C403" s="10"/>
+    </row>
+    <row r="404" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A404" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A405" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B405" s="7"/>
+      <c r="C405" s="7"/>
+    </row>
+    <row r="406" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A406" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B406" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C406" s="16">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A407" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B407" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C407" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A408" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B408" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C408" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A409" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B409" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A410" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B410" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C410" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A411" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B411" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C411" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A412" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C412" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="414" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A414" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C414" s="10"/>
+    </row>
+    <row r="415" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A415" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B415" s="9"/>
+    </row>
+    <row r="416" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="417" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A417" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C417" s="10"/>
+    </row>
+    <row r="418" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A418" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B418" s="9"/>
+    </row>
+    <row r="419" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="420" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A420" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B420" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C420" s="10"/>
+    </row>
+    <row r="421" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A421" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B421" s="9"/>
+    </row>
+    <row r="422" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="423" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A423" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C423" s="10"/>
+    </row>
+    <row r="424" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A424" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C424" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A425" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B425" s="7"/>
+      <c r="C425" s="7"/>
+    </row>
+    <row r="426" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A426" s="11">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="B426" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C426" s="11">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A427" s="11">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="B427" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C427" s="11">
+        <v>0.54861111111111105</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A428" s="11">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="B428" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428" s="11">
+        <v>0.59027777777777779</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A429" s="11">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="B429" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C429" s="11">
+        <v>0.63194444444444442</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A430" s="11">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="B430" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C430" s="11">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A431" s="11">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="B431" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C431" s="11">
+        <v>0.71527777777777779</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A432" s="11">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="B432" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C432" s="11">
+        <v>0.75694444444444453</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A433" s="11">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="B433" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C433" s="11">
+        <v>0.79861111111111116</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="435" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A435" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C435" s="10"/>
+    </row>
+    <row r="436" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A436" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C436" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A437" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B437" s="7"/>
+      <c r="C437" s="7"/>
+    </row>
+    <row r="438" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A438" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B438" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C438" s="16">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A439" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B439" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C439" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A440" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B440" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C440" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A441" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B441" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C441" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A442" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B442" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C442" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A443" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B443" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C443" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A444" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B444" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C444" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A445" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B445" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C445" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="447" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A447" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C447" s="10"/>
+    </row>
+    <row r="448" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A448" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B448" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C448" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A449" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B449" s="7"/>
+      <c r="C449" s="7"/>
+    </row>
+    <row r="450" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A450" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="B450" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C450" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A451" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B451" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C451" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A452" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B452" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C452" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A453" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B453" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C453" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A454" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B454" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C454" s="11">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A455" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="B455" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C455" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A456" s="21">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B456" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C456" s="21">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A457" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="B457" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C457" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A458" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B458" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C458" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="460" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A460" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B460" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C460" s="10"/>
+    </row>
+    <row r="461" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A461" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A462" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B462" s="7"/>
+      <c r="C462" s="7"/>
+    </row>
+    <row r="463" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A463" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B463" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C463" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A464" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B464" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C464" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A465" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B465" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C465" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A466" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B466" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A467" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B467" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C467" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A468" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="B468" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C468" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A469" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B469" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C469" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A470" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B470" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C470" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A471" s="11"/>
+      <c r="B471" s="12"/>
+      <c r="C471" s="11"/>
+    </row>
+    <row r="472" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A472" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C472" s="10"/>
+    </row>
+    <row r="473" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A473" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B473" s="9"/>
+    </row>
+    <row r="474" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="475" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A475" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C475" s="10"/>
+    </row>
+    <row r="476" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A476" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B476" s="9"/>
+    </row>
+    <row r="477" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="478" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A478" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C478" s="10"/>
+    </row>
+    <row r="479" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A479" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C479" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A480" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B480" s="7"/>
+      <c r="C480" s="7"/>
+    </row>
+    <row r="481" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A481" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B481" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C481" s="16">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A482" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B482" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C482" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A483" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B483" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C483" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A484" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B484" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C484" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A485" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B485" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C485" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A486" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B486" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C486" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A487" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B487" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C487" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A488" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B488" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C488" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="490" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A490" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B490" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C490" s="10"/>
+    </row>
+    <row r="491" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A491" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B491" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C491" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A492" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B492" s="7"/>
+      <c r="C492" s="7"/>
+    </row>
+    <row r="493" spans="1:3" s="18" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A493" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B493" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C493" s="16">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A494" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B494" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C494" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A495" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B495" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C495" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A496" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B496" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C496" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A497" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B497" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C497" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A498" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B498" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C498" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A499" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B499" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C499" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A500" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B500" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C500" s="11">
+        <v>0.79861111111111116</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="502" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A502" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B502" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C502" s="10"/>
+    </row>
+    <row r="503" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A503" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C503" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A504" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B504" s="7"/>
+      <c r="C504" s="7"/>
+    </row>
+    <row r="505" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A505" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B505" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C505" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A506" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B506" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C506" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A507" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B507" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C507" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A508" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B508" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C508" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A509" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B509" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C509" s="11">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A510" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B510" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C510" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A511" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B511" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C511" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="513" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A513" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B513" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C513" s="10"/>
+    </row>
+    <row r="514" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A514" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B514" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C514" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A515" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B515" s="7"/>
+      <c r="C515" s="7"/>
+    </row>
+    <row r="516" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A516" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="B516" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C516" s="16">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A517" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B517" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C517" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A518" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B518" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C518" s="11">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A519" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="B519" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C519" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A520" s="21">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B520" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C520" s="21">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A521" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="B521" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C521" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A522" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B522" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C522" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A523" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B523" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C523" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A524" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B524" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C524" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="526" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A526" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B526" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C526" s="10"/>
+    </row>
+    <row r="527" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A527" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B527" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C527" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A528" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B528" s="7"/>
+      <c r="C528" s="7"/>
+    </row>
+    <row r="529" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A529" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="B529" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C529" s="16">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A530" s="11">
+        <v>0.46875</v>
+      </c>
+      <c r="B530" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C530" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A531" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B531" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C531" s="11">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A532" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="B532" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C532" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A533" s="21">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B533" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C533" s="21">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A534" s="21">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B534" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C534" s="21">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A535" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B535" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C535" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A536" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="B536" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C536" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A537" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B537" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C537" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="539" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A539" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B539" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C539" s="10"/>
+    </row>
+    <row r="540" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A540" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B540" s="9"/>
+    </row>
+    <row r="541" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="542" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A542" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B542" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C542" s="10"/>
+    </row>
+    <row r="543" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A543" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B543" s="9"/>
+    </row>
+    <row r="544" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="545" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A545" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B545" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C545" s="10"/>
+    </row>
+    <row r="546" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A546" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C546" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A547" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B547" s="7"/>
+      <c r="C547" s="7"/>
+    </row>
+    <row r="548" spans="1:3" s="19" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A548" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="B548" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C548" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A549" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B549" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C549" s="11">
+        <v>0.54861111111111105</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A550" s="11">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="B550" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C550" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A551" s="21">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B551" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C551" s="21">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A552" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="B552" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C552" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A553" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B553" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C553" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A554" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B554" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C554" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A555" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B555" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C555" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="557" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A557" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B557" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C557" s="10"/>
+    </row>
+    <row r="558" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A558" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C558" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A559" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B559" s="7"/>
+      <c r="C559" s="7"/>
+    </row>
+    <row r="560" spans="1:3" s="18" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A560" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B560" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C560" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A561" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="B561" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C561" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A562" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B562" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C562" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A563" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B563" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C563" s="11">
+        <v>0.63194444444444442</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A564" s="11">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="B564" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C564" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A565" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B565" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C565" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A566" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B566" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C566" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A567" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="B567" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C567" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A568" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B568" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C568" s="11">
+        <v>0.84027777777777779</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="570" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A570" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B570" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C570" s="10"/>
+    </row>
+    <row r="571" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A571" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B571" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C571" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" s="3" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A572" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B572" s="7"/>
+      <c r="C572" s="7"/>
+    </row>
+    <row r="573" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A573" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B573" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C573" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A574" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B574" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C574" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A575" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B575" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C575" s="11">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A576" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="B576" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C576" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A577" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B577" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C577" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A578" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B578" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C578" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A579" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B579" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C579" s="11">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A580" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="B580" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C580" s="11">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="582" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="583" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="584" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="585" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="586" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="587" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="588" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="589" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="590" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="591" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="592" spans="1:3" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="593" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="594" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="595" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="596" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="597" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="598" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="599" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="600" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="601" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="602" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="603" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="604" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="605" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="606" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="607" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="608" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="609" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="610" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="611" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="612" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="613" s="12" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="614" ht="20.25" customHeight="1"/>
+    <row r="615" ht="20.25" customHeight="1"/>
+    <row r="616" ht="20.25" customHeight="1"/>
+    <row r="617" ht="20.25" customHeight="1"/>
+    <row r="618" ht="20.25" customHeight="1"/>
+    <row r="619" ht="20.25" customHeight="1"/>
+    <row r="620" ht="20.25" customHeight="1"/>
+    <row r="621" ht="20.25" customHeight="1"/>
+    <row r="622" ht="20.25" customHeight="1"/>
+    <row r="623" ht="20.25" customHeight="1"/>
+    <row r="624" ht="20.25" customHeight="1"/>
+    <row r="625" ht="20.25" customHeight="1"/>
+    <row r="626" ht="20.25" customHeight="1"/>
+    <row r="627" ht="20.25" customHeight="1"/>
+    <row r="628" ht="20.25" customHeight="1"/>
+    <row r="629" ht="20.25" customHeight="1"/>
+    <row r="630" ht="20.25" customHeight="1"/>
+    <row r="631" ht="20.25" customHeight="1"/>
+    <row r="632" ht="20.25" customHeight="1"/>
+    <row r="633" ht="20.25" customHeight="1"/>
+    <row r="634" ht="20.25" customHeight="1"/>
+    <row r="635" ht="20.25" customHeight="1"/>
+    <row r="636" ht="20.25" customHeight="1"/>
+    <row r="637" ht="20.25" customHeight="1"/>
+    <row r="638" ht="20.25" customHeight="1"/>
+    <row r="639" ht="20.25" customHeight="1"/>
+    <row r="640" ht="20.25" customHeight="1"/>
+    <row r="641" ht="20.25" customHeight="1"/>
+    <row r="642" ht="20.25" customHeight="1"/>
+    <row r="643" ht="20.25" customHeight="1"/>
+    <row r="644" ht="20.25" customHeight="1"/>
+    <row r="645" ht="20.25" customHeight="1"/>
+    <row r="646" ht="20.25" customHeight="1"/>
+    <row r="647" ht="20.25" customHeight="1"/>
+    <row r="648" ht="20.25" customHeight="1"/>
+    <row r="649" ht="20.25" customHeight="1"/>
+    <row r="650" ht="20.25" customHeight="1"/>
+    <row r="651" ht="20.25" customHeight="1"/>
+    <row r="652" ht="20.25" customHeight="1"/>
+    <row r="653" ht="20.25" customHeight="1"/>
+    <row r="654" ht="20.25" customHeight="1"/>
+    <row r="655" ht="20.25" customHeight="1"/>
+    <row r="656" ht="20.25" customHeight="1"/>
+    <row r="657" ht="20.25" customHeight="1"/>
+    <row r="658" ht="20.25" customHeight="1"/>
+    <row r="659" ht="20.25" customHeight="1"/>
+    <row r="660" ht="20.25" customHeight="1"/>
+    <row r="661" ht="20.25" customHeight="1"/>
+    <row r="662" ht="20.25" customHeight="1"/>
+    <row r="663" ht="20.25" customHeight="1"/>
+    <row r="664" ht="20.25" customHeight="1"/>
+    <row r="665" ht="20.25" customHeight="1"/>
+    <row r="666" ht="20.25" customHeight="1"/>
+    <row r="667" ht="20.25" customHeight="1"/>
+    <row r="668" ht="20.25" customHeight="1"/>
+    <row r="669" ht="20.25" customHeight="1"/>
+    <row r="670" ht="20.25" customHeight="1"/>
+    <row r="671" ht="20.25" customHeight="1"/>
+    <row r="672" ht="20.25" customHeight="1"/>
+    <row r="673" ht="20.25" customHeight="1"/>
+    <row r="674" ht="20.25" customHeight="1"/>
+    <row r="675" ht="20.25" customHeight="1"/>
+    <row r="676" ht="20.25" customHeight="1"/>
+    <row r="677" ht="20.25" customHeight="1"/>
+    <row r="678" ht="20.25" customHeight="1"/>
+    <row r="679" ht="20.25" customHeight="1"/>
+    <row r="680" ht="20.25" customHeight="1"/>
+    <row r="681" ht="20.25" customHeight="1"/>
+    <row r="682" ht="20.25" customHeight="1"/>
+    <row r="683" ht="20.25" customHeight="1"/>
+    <row r="684" ht="20.25" customHeight="1"/>
+    <row r="685" ht="20.25" customHeight="1"/>
+    <row r="686" ht="20.25" customHeight="1"/>
+    <row r="687" ht="20.25" customHeight="1"/>
+    <row r="688" ht="20.25" customHeight="1"/>
+    <row r="689" ht="20.25" customHeight="1"/>
+    <row r="690" ht="20.25" customHeight="1"/>
+    <row r="691" ht="20.25" customHeight="1"/>
+    <row r="692" ht="20.25" customHeight="1"/>
+    <row r="693" ht="20.25" customHeight="1"/>
+    <row r="694" ht="20.25" customHeight="1"/>
+    <row r="695" ht="20.25" customHeight="1"/>
+    <row r="696" ht="20.25" customHeight="1"/>
+    <row r="697" ht="20.25" customHeight="1"/>
+    <row r="698" ht="20.25" customHeight="1"/>
+    <row r="699" ht="20.25" customHeight="1"/>
+    <row r="700" ht="20.25" customHeight="1"/>
+    <row r="701" ht="20.25" customHeight="1"/>
+    <row r="702" ht="20.25" customHeight="1"/>
+    <row r="703" ht="20.25" customHeight="1"/>
+    <row r="704" ht="20.25" customHeight="1"/>
+    <row r="705" ht="20.25" customHeight="1"/>
+    <row r="706" ht="20.25" customHeight="1"/>
+    <row r="707" ht="20.25" customHeight="1"/>
+    <row r="708" ht="20.25" customHeight="1"/>
+    <row r="709" ht="20.25" customHeight="1"/>
+    <row r="710" ht="20.25" customHeight="1"/>
+    <row r="711" ht="20.25" customHeight="1"/>
+    <row r="712" ht="20.25" customHeight="1"/>
+    <row r="713" ht="20.25" customHeight="1"/>
+    <row r="714" ht="20.25" customHeight="1"/>
+    <row r="715" ht="20.25" customHeight="1"/>
+    <row r="716" ht="20.25" customHeight="1"/>
+    <row r="717" ht="20.25" customHeight="1"/>
+    <row r="718" ht="20.25" customHeight="1"/>
+    <row r="719" ht="20.25" customHeight="1"/>
+    <row r="720" ht="20.25" customHeight="1"/>
+    <row r="721" ht="20.25" customHeight="1"/>
+    <row r="722" ht="20.25" customHeight="1"/>
+    <row r="723" ht="20.25" customHeight="1"/>
+    <row r="724" ht="20.25" customHeight="1"/>
+    <row r="725" ht="20.25" customHeight="1"/>
+    <row r="726" ht="20.25" customHeight="1"/>
+    <row r="727" ht="20.25" customHeight="1"/>
+    <row r="728" ht="20.25" customHeight="1"/>
+    <row r="729" ht="20.25" customHeight="1"/>
+    <row r="730" ht="20.25" customHeight="1"/>
+    <row r="731" ht="20.25" customHeight="1"/>
+    <row r="732" ht="20.25" customHeight="1"/>
+    <row r="733" ht="20.25" customHeight="1"/>
+    <row r="734" ht="20.25" customHeight="1"/>
+    <row r="735" ht="20.25" customHeight="1"/>
+    <row r="736" ht="20.25" customHeight="1"/>
+    <row r="737" ht="20.25" customHeight="1"/>
+    <row r="738" ht="20.25" customHeight="1"/>
+    <row r="739" ht="20.25" customHeight="1"/>
+    <row r="740" ht="20.25" customHeight="1"/>
+    <row r="741" ht="20.25" customHeight="1"/>
+    <row r="742" ht="20.25" customHeight="1"/>
+    <row r="743" ht="20.25" customHeight="1"/>
+    <row r="744" ht="20.25" customHeight="1"/>
+    <row r="745" ht="20.25" customHeight="1"/>
+    <row r="746" ht="20.25" customHeight="1"/>
+    <row r="747" ht="20.25" customHeight="1"/>
+    <row r="748" ht="20.25" customHeight="1"/>
+    <row r="749" ht="20.25" customHeight="1"/>
+    <row r="750" ht="20.25" customHeight="1"/>
+    <row r="751" ht="20.25" customHeight="1"/>
+    <row r="752" ht="20.25" customHeight="1"/>
+    <row r="753" ht="20.25" customHeight="1"/>
+    <row r="754" ht="20.25" customHeight="1"/>
+    <row r="755" ht="20.25" customHeight="1"/>
+    <row r="756" ht="20.25" customHeight="1"/>
+    <row r="757" ht="20.25" customHeight="1"/>
+    <row r="758" ht="20.25" customHeight="1"/>
+    <row r="759" ht="20.25" customHeight="1"/>
+    <row r="760" ht="20.25" customHeight="1"/>
+    <row r="761" ht="20.25" customHeight="1"/>
+    <row r="762" ht="20.25" customHeight="1"/>
+    <row r="763" ht="20.25" customHeight="1"/>
+    <row r="764" ht="20.25" customHeight="1"/>
+    <row r="765" ht="20.25" customHeight="1"/>
+    <row r="766" ht="20.25" customHeight="1"/>
+    <row r="767" ht="20.25" customHeight="1"/>
+    <row r="768" ht="20.25" customHeight="1"/>
+    <row r="769" ht="20.25" customHeight="1"/>
+    <row r="770" ht="20.25" customHeight="1"/>
+    <row r="771" ht="20.25" customHeight="1"/>
+    <row r="772" ht="20.25" customHeight="1"/>
+    <row r="773" ht="20.25" customHeight="1"/>
+    <row r="774" ht="20.25" customHeight="1"/>
+    <row r="775" ht="20.25" customHeight="1"/>
+    <row r="776" ht="20.25" customHeight="1"/>
+    <row r="777" ht="20.25" customHeight="1"/>
+    <row r="778" ht="20.25" customHeight="1"/>
+    <row r="779" ht="20.25" customHeight="1"/>
+    <row r="780" ht="20.25" customHeight="1"/>
+    <row r="781" ht="20.25" customHeight="1"/>
+    <row r="782" ht="20.25" customHeight="1"/>
+    <row r="783" ht="20.25" customHeight="1"/>
+    <row r="784" ht="20.25" customHeight="1"/>
+    <row r="785" ht="20.25" customHeight="1"/>
+    <row r="786" ht="20.25" customHeight="1"/>
+    <row r="787" ht="20.25" customHeight="1"/>
+    <row r="788" ht="20.25" customHeight="1"/>
+    <row r="789" ht="20.25" customHeight="1"/>
+    <row r="790" ht="20.25" customHeight="1"/>
+    <row r="791" ht="20.25" customHeight="1"/>
+    <row r="792" ht="20.25" customHeight="1"/>
+    <row r="793" ht="20.25" customHeight="1"/>
+    <row r="794" ht="20.25" customHeight="1"/>
+    <row r="795" ht="20.25" customHeight="1"/>
+    <row r="796" ht="20.25" customHeight="1"/>
+    <row r="797" ht="20.25" customHeight="1"/>
+    <row r="798" ht="20.25" customHeight="1"/>
+    <row r="799" ht="20.25" customHeight="1"/>
+    <row r="800" ht="20.25" customHeight="1"/>
+    <row r="801" ht="20.25" customHeight="1"/>
+    <row r="802" ht="20.25" customHeight="1"/>
+    <row r="803" ht="20.25" customHeight="1"/>
+    <row r="804" ht="20.25" customHeight="1"/>
+    <row r="805" ht="20.25" customHeight="1"/>
+    <row r="806" ht="20.25" customHeight="1"/>
+    <row r="807" ht="20.25" customHeight="1"/>
+    <row r="808" ht="20.25" customHeight="1"/>
+    <row r="809" ht="20.25" customHeight="1"/>
+    <row r="810" ht="20.25" customHeight="1"/>
+    <row r="811" ht="20.25" customHeight="1"/>
+    <row r="812" ht="20.25" customHeight="1"/>
+    <row r="813" ht="20.25" customHeight="1"/>
+    <row r="814" ht="20.25" customHeight="1"/>
+    <row r="815" ht="20.25" customHeight="1"/>
+    <row r="816" ht="20.25" customHeight="1"/>
+    <row r="817" ht="20.25" customHeight="1"/>
+    <row r="818" ht="20.25" customHeight="1"/>
+    <row r="819" ht="20.25" customHeight="1"/>
+    <row r="820" ht="20.25" customHeight="1"/>
+    <row r="821" ht="20.25" customHeight="1"/>
+    <row r="822" ht="20.25" customHeight="1"/>
+    <row r="823" ht="20.25" customHeight="1"/>
+    <row r="824" ht="20.25" customHeight="1"/>
+    <row r="825" ht="20.25" customHeight="1"/>
+    <row r="826" ht="20.25" customHeight="1"/>
+    <row r="827" ht="20.25" customHeight="1"/>
+    <row r="828" ht="20.25" customHeight="1"/>
+    <row r="829" ht="20.25" customHeight="1"/>
+    <row r="830" ht="20.25" customHeight="1"/>
+    <row r="831" ht="20.25" customHeight="1"/>
+    <row r="832" ht="20.25" customHeight="1"/>
+    <row r="833" ht="20.25" customHeight="1"/>
+    <row r="834" ht="20.25" customHeight="1"/>
+    <row r="835" ht="20.25" customHeight="1"/>
+    <row r="836" ht="20.25" customHeight="1"/>
+    <row r="837" ht="20.25" customHeight="1"/>
+    <row r="838" ht="20.25" customHeight="1"/>
+    <row r="839" ht="20.25" customHeight="1"/>
+    <row r="840" ht="20.25" customHeight="1"/>
+    <row r="841" ht="20.25" customHeight="1"/>
+    <row r="842" ht="20.25" customHeight="1"/>
+    <row r="843" ht="20.25" customHeight="1"/>
+    <row r="844" ht="20.25" customHeight="1"/>
+    <row r="845" ht="20.25" customHeight="1"/>
+    <row r="846" ht="20.25" customHeight="1"/>
+    <row r="847" ht="20.25" customHeight="1"/>
+    <row r="848" ht="20.25" customHeight="1"/>
+    <row r="849" ht="20.25" customHeight="1"/>
+    <row r="850" ht="20.25" customHeight="1"/>
+    <row r="851" ht="20.25" customHeight="1"/>
+    <row r="852" ht="20.25" customHeight="1"/>
+    <row r="853" ht="20.25" customHeight="1"/>
+    <row r="854" ht="20.25" customHeight="1"/>
+    <row r="855" ht="20.25" customHeight="1"/>
+    <row r="856" ht="20.25" customHeight="1"/>
+    <row r="857" ht="20.25" customHeight="1"/>
+    <row r="858" ht="20.25" customHeight="1"/>
+    <row r="859" ht="20.25" customHeight="1"/>
+    <row r="860" ht="20.25" customHeight="1"/>
+    <row r="861" ht="20.25" customHeight="1"/>
+    <row r="862" ht="20.25" customHeight="1"/>
+    <row r="863" ht="20.25" customHeight="1"/>
+    <row r="864" ht="20.25" customHeight="1"/>
+    <row r="865" ht="20.25" customHeight="1"/>
+    <row r="866" ht="20.25" customHeight="1"/>
+    <row r="867" ht="20.25" customHeight="1"/>
+    <row r="868" ht="20.25" customHeight="1"/>
+    <row r="869" ht="20.25" customHeight="1"/>
+    <row r="870" ht="20.25" customHeight="1"/>
+    <row r="871" ht="20.25" customHeight="1"/>
+    <row r="872" ht="20.25" customHeight="1"/>
+    <row r="873" ht="20.25" customHeight="1"/>
+    <row r="874" ht="20.25" customHeight="1"/>
+    <row r="875" ht="20.25" customHeight="1"/>
+    <row r="876" ht="20.25" customHeight="1"/>
+    <row r="877" ht="20.25" customHeight="1"/>
+    <row r="878" ht="20.25" customHeight="1"/>
+    <row r="879" ht="20.25" customHeight="1"/>
+    <row r="880" ht="20.25" customHeight="1"/>
+    <row r="881" ht="20.25" customHeight="1"/>
+    <row r="882" ht="20.25" customHeight="1"/>
+    <row r="883" ht="20.25" customHeight="1"/>
+    <row r="884" ht="20.25" customHeight="1"/>
+    <row r="885" ht="20.25" customHeight="1"/>
+    <row r="886" ht="20.25" customHeight="1"/>
+    <row r="887" ht="20.25" customHeight="1"/>
+    <row r="888" ht="20.25" customHeight="1"/>
+    <row r="889" ht="20.25" customHeight="1"/>
+    <row r="890" ht="20.25" customHeight="1"/>
+    <row r="891" ht="20.25" customHeight="1"/>
+    <row r="892" ht="20.25" customHeight="1"/>
+    <row r="893" ht="20.25" customHeight="1"/>
+    <row r="894" ht="20.25" customHeight="1"/>
+    <row r="895" ht="20.25" customHeight="1"/>
+    <row r="896" ht="20.25" customHeight="1"/>
+    <row r="897" ht="20.25" customHeight="1"/>
+    <row r="898" ht="20.25" customHeight="1"/>
+    <row r="899" ht="20.25" customHeight="1"/>
+    <row r="900" ht="20.25" customHeight="1"/>
+    <row r="901" ht="20.25" customHeight="1"/>
+    <row r="902" ht="20.25" customHeight="1"/>
+    <row r="903" ht="20.25" customHeight="1"/>
+    <row r="904" ht="20.25" customHeight="1"/>
+    <row r="905" ht="20.25" customHeight="1"/>
+    <row r="906" ht="20.25" customHeight="1"/>
+    <row r="907" ht="20.25" customHeight="1"/>
+    <row r="908" ht="20.25" customHeight="1"/>
+    <row r="909" ht="20.25" customHeight="1"/>
+    <row r="910" ht="20.25" customHeight="1"/>
+    <row r="911" ht="20.25" customHeight="1"/>
+    <row r="912" ht="20.25" customHeight="1"/>
+    <row r="913" ht="20.25" customHeight="1"/>
+    <row r="914" ht="20.25" customHeight="1"/>
+    <row r="915" ht="20.25" customHeight="1"/>
+    <row r="916" ht="20.25" customHeight="1"/>
+    <row r="917" ht="20.25" customHeight="1"/>
+    <row r="918" ht="20.25" customHeight="1"/>
+    <row r="919" ht="20.25" customHeight="1"/>
+    <row r="920" ht="20.25" customHeight="1"/>
+    <row r="921" ht="20.25" customHeight="1"/>
+    <row r="922" ht="20.25" customHeight="1"/>
+    <row r="923" ht="20.25" customHeight="1"/>
+    <row r="924" ht="20.25" customHeight="1"/>
+    <row r="925" ht="20.25" customHeight="1"/>
+    <row r="926" ht="20.25" customHeight="1"/>
+    <row r="927" ht="20.25" customHeight="1"/>
+    <row r="928" ht="20.25" customHeight="1"/>
+    <row r="929" ht="20.25" customHeight="1"/>
+    <row r="930" ht="20.25" customHeight="1"/>
+    <row r="931" ht="20.25" customHeight="1"/>
+    <row r="932" ht="20.25" customHeight="1"/>
+    <row r="933" ht="20.25" customHeight="1"/>
+    <row r="934" ht="20.25" customHeight="1"/>
+    <row r="935" ht="20.25" customHeight="1"/>
+    <row r="936" ht="20.25" customHeight="1"/>
+    <row r="937" ht="20.25" customHeight="1"/>
+    <row r="938" ht="20.25" customHeight="1"/>
+    <row r="939" ht="20.25" customHeight="1"/>
+    <row r="940" ht="20.25" customHeight="1"/>
+    <row r="941" ht="20.25" customHeight="1"/>
+    <row r="942" ht="20.25" customHeight="1"/>
+    <row r="943" ht="20.25" customHeight="1"/>
+    <row r="944" ht="20.25" customHeight="1"/>
+    <row r="945" ht="20.25" customHeight="1"/>
+    <row r="946" ht="20.25" customHeight="1"/>
+    <row r="947" ht="20.25" customHeight="1"/>
+    <row r="948" ht="20.25" customHeight="1"/>
+    <row r="949" ht="20.25" customHeight="1"/>
+    <row r="950" ht="20.25" customHeight="1"/>
+    <row r="951" ht="20.25" customHeight="1"/>
+    <row r="952" ht="20.25" customHeight="1"/>
+    <row r="953" ht="20.25" customHeight="1"/>
+    <row r="954" ht="20.25" customHeight="1"/>
+    <row r="955" ht="20.25" customHeight="1"/>
+    <row r="956" ht="20.25" customHeight="1"/>
+    <row r="957" ht="20.25" customHeight="1"/>
+    <row r="958" ht="20.25" customHeight="1"/>
+    <row r="959" ht="20.25" customHeight="1"/>
+    <row r="960" ht="20.25" customHeight="1"/>
+    <row r="961" ht="20.25" customHeight="1"/>
+    <row r="962" ht="20.25" customHeight="1"/>
+    <row r="963" ht="20.25" customHeight="1"/>
+    <row r="964" ht="20.25" customHeight="1"/>
+    <row r="965" ht="20.25" customHeight="1"/>
+    <row r="966" ht="20.25" customHeight="1"/>
+    <row r="967" ht="20.25" customHeight="1"/>
+    <row r="968" ht="20.25" customHeight="1"/>
+    <row r="969" ht="20.25" customHeight="1"/>
+    <row r="970" ht="20.25" customHeight="1"/>
+    <row r="971" ht="20.25" customHeight="1"/>
+    <row r="972" ht="20.25" customHeight="1"/>
+    <row r="973" ht="20.25" customHeight="1"/>
+    <row r="974" ht="20.25" customHeight="1"/>
+    <row r="975" ht="20.25" customHeight="1"/>
+    <row r="976" ht="20.25" customHeight="1"/>
+    <row r="977" ht="20.25" customHeight="1"/>
+    <row r="978" ht="20.25" customHeight="1"/>
+    <row r="979" ht="20.25" customHeight="1"/>
+    <row r="980" ht="20.25" customHeight="1"/>
+    <row r="981" ht="20.25" customHeight="1"/>
+    <row r="982" ht="20.25" customHeight="1"/>
+    <row r="983" ht="20.25" customHeight="1"/>
+    <row r="984" ht="20.25" customHeight="1"/>
+    <row r="985" ht="20.25" customHeight="1"/>
+    <row r="986" ht="20.25" customHeight="1"/>
+    <row r="987" ht="20.25" customHeight="1"/>
+    <row r="988" ht="20.25" customHeight="1"/>
+    <row r="989" ht="20.25" customHeight="1"/>
+    <row r="990" ht="20.25" customHeight="1"/>
+    <row r="991" ht="20.25" customHeight="1"/>
+    <row r="992" ht="20.25" customHeight="1"/>
+    <row r="993" ht="20.25" customHeight="1"/>
+    <row r="994" ht="20.25" customHeight="1"/>
+    <row r="995" ht="20.25" customHeight="1"/>
+    <row r="996" ht="20.25" customHeight="1"/>
+    <row r="997" ht="20.25" customHeight="1"/>
+    <row r="998" ht="20.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
